--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_5_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_5_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1150397.472113554</v>
+        <v>1094619.949970948</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.7684111181</v>
+        <v>713587.7684111176</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11813519.27205211</v>
+        <v>11813519.2720521</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7479906.662260643</v>
+        <v>7479906.662260641</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C2" t="n">
-        <v>198.7050131246913</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>168.1666138174382</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>236.3558083596639</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>171.476017605668</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -907,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -949,16 +949,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>180.1159031720508</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -1022,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>113.1480979668293</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>68.43462942837229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>178.1573130319831</v>
-      </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>72.47049842454874</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1223,16 +1223,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>61.88144731930495</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>81.19151792667029</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1314,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>80.50561312562328</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>56.06257007945297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1451,7 +1451,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0282495084215</v>
+        <v>55.22689560881044</v>
       </c>
       <c r="H12" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1511,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>15.13518083054779</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1548,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>21.38816470214937</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>39.19479062707047</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>39.55573210186845</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1654,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>163.7233641567956</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U14" t="n">
         <v>251.2985142370684</v>
@@ -1672,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1706,7 +1706,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
-        <v>78.54202280713804</v>
+        <v>66.65054165535091</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1739,10 +1739,10 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>181.6683644804153</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1782,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>39.2952677809261</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>73.36175976093797</v>
       </c>
     </row>
     <row r="17">
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>356.6960007659536</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
-        <v>86.65804289016231</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>69.29095382844251</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>137.0282495084215</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>70.62654456112848</v>
       </c>
       <c r="U18" t="n">
         <v>225.9206407878966</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>39.19479062707046</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3046124576955</v>
+        <v>38.97640474817486</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>49.74898662285611</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>95.42382038141555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2165,13 +2165,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2207,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
-        <v>127.3343733834984</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>180.4607523827686</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>98.68313739545469</v>
+        <v>39.19479062707041</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,16 +2320,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>405.7415719969023</v>
@@ -2374,13 +2374,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>121.1521287468505</v>
       </c>
       <c r="V23" t="n">
-        <v>31.94740982209909</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>34.31881265622927</v>
+        <v>207.0273116445446</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2520,25 +2520,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>96.060641163564</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>38.97640474817486</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2566,16 +2566,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,22 +2602,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>43.05982909444155</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2985142370684</v>
+        <v>129.0632770397856</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2633,16 +2633,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -2651,7 +2651,7 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,25 +2684,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>126.5585528227199</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U27" t="n">
-        <v>3.916333915343345</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2718,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>33.64439241526551</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>160.0903419479084</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2803,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>287.0328539434444</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>181.5026569858125</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2873,7 +2873,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -2882,13 +2882,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.31881265622904</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2927,10 +2927,10 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>185.5680639879747</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -2994,16 +2994,16 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>34.65343661111034</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T31" t="n">
-        <v>226.8162656893113</v>
+        <v>106.0890042129125</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3043,13 +3043,13 @@
         <v>405.7415719969023</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H32" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>68.60976267518207</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>15.11201517728562</v>
       </c>
     </row>
     <row r="33">
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>87.30283807112627</v>
+        <v>81.12752273267785</v>
       </c>
       <c r="T33" t="n">
         <v>198.8939788055617</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.914749732671</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>165.6221850809707</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3277,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>156.3643295326802</v>
       </c>
       <c r="T35" t="n">
-        <v>28.78393973780999</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3350,19 +3350,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U36" t="n">
-        <v>181.7638782208678</v>
+        <v>174.2607881359615</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>157.7727335375555</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>98.68313739545464</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3514,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>156.3643295326802</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,19 +3556,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
-        <v>141.6396260835078</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3581,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>88.00880902957773</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3632,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
-        <v>113.4883178883723</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U39" t="n">
         <v>225.9206407878966</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>157.7727335375555</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3705,13 +3705,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>96.06064116356406</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>181.2878961210735</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3751,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>218.0933703165741</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3830,10 +3830,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>120.7969278393456</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3875,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9206407878966</v>
+        <v>102.9732589251119</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.6221850809705</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H43" t="n">
-        <v>159.8772180037952</v>
+        <v>157.7727335375555</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>405.7415719969023</v>
@@ -3994,10 +3994,10 @@
         <v>405.7415719969023</v>
       </c>
       <c r="H44" t="n">
-        <v>193.4289090289419</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>264.0251236100225</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4055,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>67.51731269241139</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4103,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T45" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9206407878966</v>
+        <v>140.3541797920979</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4179,16 +4179,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>34.65343661111034</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>10.7506239280573</v>
       </c>
       <c r="T46" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>467.067986854209</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="C2" t="n">
-        <v>266.3558523848238</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="D2" t="n">
-        <v>266.3558523848238</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="E2" t="n">
-        <v>266.3558523848238</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F2" t="n">
-        <v>259.4103516356203</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4357,25 +4357,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="X2" t="n">
-        <v>710.516763498309</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="Y2" t="n">
-        <v>710.516763498309</v>
+        <v>297.2027203719481</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>193.7341723913397</v>
+        <v>259.2693145670932</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>259.2693145670932</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4418,13 +4418,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4448,13 +4448,13 @@
         <v>432.4774131586771</v>
       </c>
       <c r="W3" t="n">
-        <v>193.7341723913397</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="X3" t="n">
-        <v>193.7341723913397</v>
+        <v>259.2693145670932</v>
       </c>
       <c r="Y3" t="n">
-        <v>193.7341723913397</v>
+        <v>259.2693145670932</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.68395448076474</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C5" t="n">
-        <v>41.68395448076474</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D5" t="n">
-        <v>41.68395448076474</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E5" t="n">
-        <v>41.68395448076474</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="F5" t="n">
-        <v>34.73845373156126</v>
+        <v>710.516763498309</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4597,22 +4597,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>772.0302844130649</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>528.5815077689649</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>285.1327311248648</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>41.68395448076474</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>41.68395448076474</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y5" t="n">
-        <v>41.68395448076474</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C6" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D6" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E6" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F6" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
         <v>110.334904905842</v>
@@ -4655,13 +4655,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O6" t="n">
-        <v>851.8101010141643</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U6" t="n">
-        <v>735.8335372470253</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V6" t="n">
-        <v>500.6814290152826</v>
+        <v>318.1864051113748</v>
       </c>
       <c r="W6" t="n">
-        <v>500.6814290152826</v>
+        <v>318.1864051113748</v>
       </c>
       <c r="X6" t="n">
-        <v>292.8299288097498</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y6" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4746,31 +4746,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>233.7108255783361</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C8" t="n">
-        <v>233.7108255783361</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D8" t="n">
-        <v>53.75394372784808</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E8" t="n">
-        <v>53.75394372784808</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="G8" t="n">
         <v>31.35113235729608</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X8" t="n">
-        <v>720.6083788665362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y8" t="n">
-        <v>477.1596022224361</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>418.6697947459187</v>
+        <v>172.8414173495843</v>
       </c>
       <c r="C9" t="n">
-        <v>418.6697947459187</v>
+        <v>172.8414173495843</v>
       </c>
       <c r="D9" t="n">
-        <v>418.6697947459187</v>
+        <v>172.8414173495843</v>
       </c>
       <c r="E9" t="n">
-        <v>418.6697947459187</v>
+        <v>172.8414173495843</v>
       </c>
       <c r="F9" t="n">
-        <v>272.1352367728036</v>
+        <v>172.8414173495843</v>
       </c>
       <c r="G9" t="n">
-        <v>133.4044113554191</v>
+        <v>172.8414173495843</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4895,13 +4895,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O9" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U9" t="n">
-        <v>735.8335372470253</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V9" t="n">
-        <v>500.6814290152826</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W9" t="n">
-        <v>500.6814290152826</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X9" t="n">
-        <v>500.6814290152826</v>
+        <v>380.6017161145382</v>
       </c>
       <c r="Y9" t="n">
-        <v>418.6697947459187</v>
+        <v>172.8414173495843</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4983,31 +4983,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>32.45932575975218</v>
+        <v>933.4580703248309</v>
       </c>
       <c r="C11" t="n">
-        <v>32.45932575975218</v>
+        <v>933.4580703248309</v>
       </c>
       <c r="D11" t="n">
-        <v>32.45932575975218</v>
+        <v>933.4580703248309</v>
       </c>
       <c r="E11" t="n">
-        <v>32.45932575975218</v>
+        <v>933.4580703248309</v>
       </c>
       <c r="F11" t="n">
-        <v>32.45932575975218</v>
+        <v>523.6180986107881</v>
       </c>
       <c r="G11" t="n">
-        <v>32.45932575975218</v>
+        <v>113.7781268967454</v>
       </c>
       <c r="H11" t="n">
-        <v>32.45932575975218</v>
+        <v>113.7781268967454</v>
       </c>
       <c r="I11" t="n">
         <v>32.45932575975218</v>
@@ -5065,28 +5065,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R11" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S11" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T11" t="n">
-        <v>1400.222368368377</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="U11" t="n">
-        <v>1146.385485300631</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="V11" t="n">
-        <v>815.3225979570603</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="W11" t="n">
-        <v>462.5539426869462</v>
+        <v>933.4580703248309</v>
       </c>
       <c r="X11" t="n">
-        <v>89.0881844258663</v>
+        <v>933.4580703248309</v>
       </c>
       <c r="Y11" t="n">
-        <v>32.45932575975218</v>
+        <v>933.4580703248309</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>989.6600854869342</v>
+        <v>542.9504914387765</v>
       </c>
       <c r="C12" t="n">
-        <v>815.2070562058072</v>
+        <v>542.9504914387765</v>
       </c>
       <c r="D12" t="n">
-        <v>666.272646544556</v>
+        <v>394.0160817775252</v>
       </c>
       <c r="E12" t="n">
-        <v>507.0351915391004</v>
+        <v>234.7786267720697</v>
       </c>
       <c r="F12" t="n">
-        <v>360.5006335659854</v>
+        <v>88.24406879895466</v>
       </c>
       <c r="G12" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H12" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I12" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J12" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K12" t="n">
-        <v>236.9655055809357</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L12" t="n">
-        <v>534.6972605625989</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M12" t="n">
-        <v>934.1153971668618</v>
+        <v>905.36650176277</v>
       </c>
       <c r="N12" t="n">
-        <v>1335.799553443795</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="O12" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P12" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q12" t="n">
         <v>1622.966287987609</v>
@@ -5159,13 +5159,13 @@
         <v>1173.163483952</v>
       </c>
       <c r="W12" t="n">
-        <v>1173.163483952</v>
+        <v>918.9261272237984</v>
       </c>
       <c r="X12" t="n">
-        <v>1173.163483952</v>
+        <v>918.9261272237984</v>
       </c>
       <c r="Y12" t="n">
-        <v>1157.875422507002</v>
+        <v>711.1658284588445</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>129.490276430019</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C13" t="n">
-        <v>129.490276430019</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D13" t="n">
-        <v>129.490276430019</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E13" t="n">
-        <v>129.490276430019</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F13" t="n">
-        <v>129.490276430019</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G13" t="n">
-        <v>129.490276430019</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H13" t="n">
-        <v>129.490276430019</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J13" t="n">
         <v>32.45932575975218</v>
@@ -5220,31 +5220,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q13" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R13" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S13" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T13" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U13" t="n">
-        <v>129.490276430019</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="V13" t="n">
-        <v>129.490276430019</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="W13" t="n">
-        <v>129.490276430019</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X13" t="n">
-        <v>129.490276430019</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y13" t="n">
-        <v>129.490276430019</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>32.45932575975219</v>
+        <v>72.41461071113446</v>
       </c>
       <c r="C14" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D14" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E14" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F14" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G14" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H14" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I14" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J14" t="n">
         <v>70.13987180521508</v>
@@ -5302,28 +5302,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R14" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S14" t="n">
-        <v>1343.593509702263</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T14" t="n">
-        <v>1343.593509702263</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U14" t="n">
-        <v>1089.756626634517</v>
+        <v>1146.385485300631</v>
       </c>
       <c r="V14" t="n">
-        <v>758.6937392909463</v>
+        <v>815.3225979570603</v>
       </c>
       <c r="W14" t="n">
-        <v>405.9250840208321</v>
+        <v>462.5539426869462</v>
       </c>
       <c r="X14" t="n">
-        <v>32.45932575975219</v>
+        <v>462.5539426869462</v>
       </c>
       <c r="Y14" t="n">
-        <v>32.45932575975219</v>
+        <v>72.41461071113446</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>989.6600854869342</v>
+        <v>977.6484883639168</v>
       </c>
       <c r="C15" t="n">
-        <v>815.2070562058072</v>
+        <v>803.1954590827899</v>
       </c>
       <c r="D15" t="n">
-        <v>666.272646544556</v>
+        <v>654.2610494215386</v>
       </c>
       <c r="E15" t="n">
-        <v>507.0351915391004</v>
+        <v>495.0235944160831</v>
       </c>
       <c r="F15" t="n">
-        <v>360.5006335659854</v>
+        <v>348.4890364429681</v>
       </c>
       <c r="G15" t="n">
-        <v>222.0882603251556</v>
+        <v>210.0766632021383</v>
       </c>
       <c r="H15" t="n">
-        <v>111.7947023326189</v>
+        <v>99.78310520960159</v>
       </c>
       <c r="I15" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J15" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K15" t="n">
-        <v>61.20822116384404</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L15" t="n">
-        <v>147.3709770270845</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M15" t="n">
-        <v>546.7891136313475</v>
+        <v>905.36650176277</v>
       </c>
       <c r="N15" t="n">
-        <v>948.4732699082808</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O15" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P15" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q15" t="n">
         <v>1622.966287987609</v>
@@ -5387,22 +5387,22 @@
         <v>1374.066492846507</v>
       </c>
       <c r="T15" t="n">
-        <v>1173.163483952</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="U15" t="n">
-        <v>989.6600854869342</v>
+        <v>1145.863825383985</v>
       </c>
       <c r="V15" t="n">
-        <v>989.6600854869342</v>
+        <v>1145.863825383985</v>
       </c>
       <c r="W15" t="n">
-        <v>989.6600854869342</v>
+        <v>1145.863825383985</v>
       </c>
       <c r="X15" t="n">
-        <v>989.6600854869342</v>
+        <v>1145.863825383985</v>
       </c>
       <c r="Y15" t="n">
-        <v>989.6600854869342</v>
+        <v>1145.863825383985</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C16" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D16" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F16" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G16" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H16" t="n">
-        <v>256.8779464865154</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I16" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K16" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L16" t="n">
         <v>107.0302722280248</v>
@@ -5457,31 +5457,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q16" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R16" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S16" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T16" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U16" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V16" t="n">
-        <v>296.5701361642185</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="W16" t="n">
-        <v>296.5701361642185</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="X16" t="n">
-        <v>296.5701361642185</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="Y16" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>32.45932575975219</v>
+        <v>1171.560805086887</v>
       </c>
       <c r="C17" t="n">
-        <v>32.45932575975219</v>
+        <v>802.5982881464754</v>
       </c>
       <c r="D17" t="n">
-        <v>32.45932575975219</v>
+        <v>802.5982881464754</v>
       </c>
       <c r="E17" t="n">
-        <v>32.45932575975219</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F17" t="n">
         <v>32.45932575975219</v>
@@ -5518,7 +5518,7 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K17" t="n">
-        <v>247.3580469011319</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L17" t="n">
         <v>519.4894913528326</v>
@@ -5542,25 +5542,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S17" t="n">
-        <v>1622.966287987609</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T17" t="n">
-        <v>1622.966287987609</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="U17" t="n">
-        <v>1622.966287987609</v>
+        <v>1171.560805086887</v>
       </c>
       <c r="V17" t="n">
-        <v>1535.43291133088</v>
+        <v>1171.560805086887</v>
       </c>
       <c r="W17" t="n">
-        <v>1182.664256060766</v>
+        <v>1171.560805086887</v>
       </c>
       <c r="X17" t="n">
-        <v>809.1984977996857</v>
+        <v>1171.560805086887</v>
       </c>
       <c r="Y17" t="n">
-        <v>419.059165823874</v>
+        <v>1171.560805086887</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>240.8625614535542</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="C18" t="n">
-        <v>240.8625614535542</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="D18" t="n">
-        <v>240.8625614535542</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="E18" t="n">
-        <v>240.8625614535542</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="F18" t="n">
-        <v>170.8716990005819</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="G18" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H18" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I18" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J18" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K18" t="n">
-        <v>32.45932575975219</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L18" t="n">
-        <v>147.3709770270845</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M18" t="n">
-        <v>546.7891136313475</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N18" t="n">
-        <v>948.4732699082808</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O18" t="n">
         <v>1271.486777082839</v>
       </c>
       <c r="P18" t="n">
-        <v>1513.730526286846</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q18" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R18" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S18" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T18" t="n">
-        <v>1374.066492846507</v>
+        <v>1551.626343986469</v>
       </c>
       <c r="U18" t="n">
-        <v>1145.863825383985</v>
+        <v>1323.423676523948</v>
       </c>
       <c r="V18" t="n">
-        <v>910.7117171522425</v>
+        <v>1088.271568292205</v>
       </c>
       <c r="W18" t="n">
-        <v>656.4743604240409</v>
+        <v>834.0342115640035</v>
       </c>
       <c r="X18" t="n">
-        <v>448.6228602185081</v>
+        <v>626.1827113584707</v>
       </c>
       <c r="Y18" t="n">
-        <v>240.8625614535542</v>
+        <v>418.4224125935167</v>
       </c>
     </row>
     <row r="19">
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>72.05002336285366</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C19" t="n">
-        <v>72.05002336285366</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D19" t="n">
         <v>32.45932575975219</v>
@@ -5676,49 +5676,49 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K19" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L19" t="n">
         <v>107.0302722280248</v>
       </c>
       <c r="M19" t="n">
-        <v>187.235757098444</v>
+        <v>187.2357570984439</v>
       </c>
       <c r="N19" t="n">
         <v>270.9687512285709</v>
       </c>
       <c r="O19" t="n">
-        <v>332.2934283710737</v>
+        <v>332.2934283710736</v>
       </c>
       <c r="P19" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="Q19" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="R19" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="S19" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="T19" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="U19" t="n">
-        <v>72.05002336285366</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V19" t="n">
-        <v>72.05002336285366</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W19" t="n">
-        <v>72.05002336285366</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X19" t="n">
-        <v>72.05002336285366</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y19" t="n">
-        <v>72.05002336285366</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>787.2100952984081</v>
+        <v>451.6733443394125</v>
       </c>
       <c r="C20" t="n">
-        <v>418.2475783579964</v>
+        <v>82.71082739900078</v>
       </c>
       <c r="D20" t="n">
-        <v>418.2475783579964</v>
+        <v>82.71082739900078</v>
       </c>
       <c r="E20" t="n">
-        <v>32.45932575975218</v>
+        <v>82.71082739900078</v>
       </c>
       <c r="F20" t="n">
-        <v>32.45932575975218</v>
+        <v>82.71082739900078</v>
       </c>
       <c r="G20" t="n">
-        <v>32.45932575975218</v>
+        <v>82.71082739900078</v>
       </c>
       <c r="H20" t="n">
-        <v>32.45932575975218</v>
+        <v>82.71082739900078</v>
       </c>
       <c r="I20" t="n">
         <v>32.45932575975218</v>
@@ -5755,7 +5755,7 @@
         <v>70.13987180521505</v>
       </c>
       <c r="K20" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L20" t="n">
         <v>519.4894913528326</v>
@@ -5776,28 +5776,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R20" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S20" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T20" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="U20" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="V20" t="n">
-        <v>1622.966287987609</v>
+        <v>1177.907757870606</v>
       </c>
       <c r="W20" t="n">
-        <v>1270.197632717495</v>
+        <v>825.1391026004924</v>
       </c>
       <c r="X20" t="n">
-        <v>1270.197632717495</v>
+        <v>451.6733443394125</v>
       </c>
       <c r="Y20" t="n">
-        <v>1173.80993536253</v>
+        <v>451.6733443394125</v>
       </c>
     </row>
     <row r="21">
@@ -5807,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>661.618777680701</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C21" t="n">
-        <v>487.165748399574</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D21" t="n">
-        <v>338.2313387383227</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E21" t="n">
-        <v>178.9938837328672</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F21" t="n">
         <v>32.45932575975218</v>
@@ -5837,16 +5837,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="L21" t="n">
-        <v>256.6067387278472</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M21" t="n">
-        <v>656.0248753321102</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N21" t="n">
-        <v>1057.709031609043</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O21" t="n">
-        <v>1380.722538783602</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P21" t="n">
         <v>1622.966287987609</v>
@@ -5855,28 +5855,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R21" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S21" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T21" t="n">
-        <v>1245.445913671256</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U21" t="n">
-        <v>1245.445913671256</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="V21" t="n">
-        <v>1245.445913671256</v>
+        <v>1019.408935819526</v>
       </c>
       <c r="W21" t="n">
-        <v>1245.445913671256</v>
+        <v>765.171579091324</v>
       </c>
       <c r="X21" t="n">
-        <v>1037.594413465723</v>
+        <v>582.8879908259012</v>
       </c>
       <c r="Y21" t="n">
-        <v>829.8341147007691</v>
+        <v>375.1276920609472</v>
       </c>
     </row>
     <row r="22">
@@ -5940,13 +5940,13 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T22" t="n">
-        <v>132.1392625228377</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U22" t="n">
-        <v>132.1392625228377</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="V22" t="n">
-        <v>132.1392625228377</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="W22" t="n">
         <v>32.45932575975218</v>
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1237.927521786082</v>
+        <v>1169.527513020957</v>
       </c>
       <c r="C23" t="n">
-        <v>1237.927521786082</v>
+        <v>800.5649960805454</v>
       </c>
       <c r="D23" t="n">
-        <v>1237.927521786082</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="E23" t="n">
-        <v>852.1392691878377</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F23" t="n">
-        <v>442.299297473795</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G23" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H23" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I23" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J23" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K23" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L23" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M23" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N23" t="n">
         <v>1148.836227140252</v>
@@ -6022,19 +6022,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U23" t="n">
-        <v>1622.966287987609</v>
+        <v>1500.590400364528</v>
       </c>
       <c r="V23" t="n">
-        <v>1590.696177056196</v>
+        <v>1169.527513020957</v>
       </c>
       <c r="W23" t="n">
-        <v>1237.927521786082</v>
+        <v>1169.527513020957</v>
       </c>
       <c r="X23" t="n">
-        <v>1237.927521786082</v>
+        <v>1169.527513020957</v>
       </c>
       <c r="Y23" t="n">
-        <v>1237.927521786082</v>
+        <v>1169.527513020957</v>
       </c>
     </row>
     <row r="24">
@@ -6044,7 +6044,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>515.0842197075859</v>
+        <v>340.6311904264589</v>
       </c>
       <c r="C24" t="n">
         <v>340.6311904264589</v>
@@ -6053,40 +6053,40 @@
         <v>191.6967807652077</v>
       </c>
       <c r="E24" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F24" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G24" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H24" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I24" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J24" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K24" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L24" t="n">
-        <v>358.9399761455072</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M24" t="n">
-        <v>758.3581127497702</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N24" t="n">
-        <v>1160.042269026703</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O24" t="n">
-        <v>1483.055776201262</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P24" t="n">
-        <v>1513.730526286847</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q24" t="n">
         <v>1622.966287987609</v>
@@ -6101,19 +6101,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U24" t="n">
-        <v>1588.300820658085</v>
+        <v>1413.847791376958</v>
       </c>
       <c r="V24" t="n">
-        <v>1353.148712426342</v>
+        <v>1178.695683145215</v>
       </c>
       <c r="W24" t="n">
-        <v>1098.911355698141</v>
+        <v>924.4583264170137</v>
       </c>
       <c r="X24" t="n">
-        <v>891.0598554926078</v>
+        <v>716.6068262114809</v>
       </c>
       <c r="Y24" t="n">
-        <v>683.2995567276539</v>
+        <v>508.846527446527</v>
       </c>
     </row>
     <row r="25">
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K25" t="n">
         <v>40.81344334191284</v>
@@ -6168,31 +6168,31 @@
         <v>361.24660160295</v>
       </c>
       <c r="Q25" t="n">
-        <v>296.5701361642184</v>
+        <v>361.24660160295</v>
       </c>
       <c r="R25" t="n">
-        <v>129.4902764300189</v>
+        <v>361.24660160295</v>
       </c>
       <c r="S25" t="n">
-        <v>129.4902764300189</v>
+        <v>361.24660160295</v>
       </c>
       <c r="T25" t="n">
-        <v>32.45932575975219</v>
+        <v>361.24660160295</v>
       </c>
       <c r="U25" t="n">
-        <v>32.45932575975219</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V25" t="n">
-        <v>32.45932575975219</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>32.45932575975218</v>
+        <v>1378.603698709343</v>
       </c>
       <c r="C26" t="n">
-        <v>32.45932575975218</v>
+        <v>1378.603698709343</v>
       </c>
       <c r="D26" t="n">
-        <v>32.45932575975218</v>
+        <v>1378.603698709343</v>
       </c>
       <c r="E26" t="n">
-        <v>32.45932575975218</v>
+        <v>1378.603698709343</v>
       </c>
       <c r="F26" t="n">
-        <v>32.45932575975218</v>
+        <v>968.7637269953004</v>
       </c>
       <c r="G26" t="n">
-        <v>32.45932575975218</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="H26" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I26" t="n">
         <v>32.45932575975218</v>
@@ -6250,28 +6250,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R26" t="n">
-        <v>1579.471511124537</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S26" t="n">
-        <v>1579.471511124537</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T26" t="n">
-        <v>1356.727591505305</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="U26" t="n">
-        <v>1102.890708437559</v>
+        <v>1378.603698709343</v>
       </c>
       <c r="V26" t="n">
-        <v>771.8278210939882</v>
+        <v>1378.603698709343</v>
       </c>
       <c r="W26" t="n">
-        <v>419.059165823874</v>
+        <v>1378.603698709343</v>
       </c>
       <c r="X26" t="n">
-        <v>419.059165823874</v>
+        <v>1378.603698709343</v>
       </c>
       <c r="Y26" t="n">
-        <v>419.059165823874</v>
+        <v>1378.603698709343</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>800.0311509215306</v>
+        <v>576.634224627485</v>
       </c>
       <c r="C27" t="n">
-        <v>625.5781216404037</v>
+        <v>576.634224627485</v>
       </c>
       <c r="D27" t="n">
-        <v>476.6437119791524</v>
+        <v>427.6998149662337</v>
       </c>
       <c r="E27" t="n">
-        <v>317.4062569736969</v>
+        <v>427.6998149662337</v>
       </c>
       <c r="F27" t="n">
-        <v>170.8716990005819</v>
+        <v>281.1652569931186</v>
       </c>
       <c r="G27" t="n">
-        <v>32.45932575975218</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H27" t="n">
         <v>32.45932575975218</v>
@@ -6308,22 +6308,22 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K27" t="n">
-        <v>236.9655055809357</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L27" t="n">
-        <v>534.6972605625989</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M27" t="n">
-        <v>934.1153971668618</v>
+        <v>758.3581127497702</v>
       </c>
       <c r="N27" t="n">
-        <v>1299.952780813051</v>
+        <v>1160.042269026703</v>
       </c>
       <c r="O27" t="n">
-        <v>1622.966287987609</v>
+        <v>1483.055776201262</v>
       </c>
       <c r="P27" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q27" t="n">
         <v>1622.966287987609</v>
@@ -6332,25 +6332,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S27" t="n">
-        <v>1622.966287987609</v>
+        <v>1495.129365944458</v>
       </c>
       <c r="T27" t="n">
-        <v>1622.966287987609</v>
+        <v>1294.226357049951</v>
       </c>
       <c r="U27" t="n">
-        <v>1619.010395143828</v>
+        <v>1066.023689587429</v>
       </c>
       <c r="V27" t="n">
-        <v>1383.858286912085</v>
+        <v>830.8715813556867</v>
       </c>
       <c r="W27" t="n">
-        <v>1383.858286912085</v>
+        <v>576.634224627485</v>
       </c>
       <c r="X27" t="n">
-        <v>1176.006786706552</v>
+        <v>576.634224627485</v>
       </c>
       <c r="Y27" t="n">
-        <v>968.2464879415986</v>
+        <v>576.634224627485</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C28" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D28" t="n">
-        <v>32.45932575975218</v>
+        <v>327.2623668400556</v>
       </c>
       <c r="E28" t="n">
-        <v>32.45932575975218</v>
+        <v>179.3492732576625</v>
       </c>
       <c r="F28" t="n">
         <v>32.45932575975218</v>
@@ -6408,28 +6408,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R28" t="n">
-        <v>194.1667418687505</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S28" t="n">
-        <v>194.1667418687505</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T28" t="n">
-        <v>194.1667418687505</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U28" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V28" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W28" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X28" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y28" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>32.45932575975218</v>
+        <v>732.2314731742438</v>
       </c>
       <c r="C29" t="n">
-        <v>32.45932575975218</v>
+        <v>732.2314731742438</v>
       </c>
       <c r="D29" t="n">
-        <v>32.45932575975218</v>
+        <v>732.2314731742438</v>
       </c>
       <c r="E29" t="n">
-        <v>32.45932575975218</v>
+        <v>732.2314731742438</v>
       </c>
       <c r="F29" t="n">
-        <v>32.45932575975218</v>
+        <v>322.391501460201</v>
       </c>
       <c r="G29" t="n">
         <v>32.45932575975218</v>
@@ -6463,16 +6463,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J29" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K29" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L29" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M29" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N29" t="n">
         <v>1148.836227140252</v>
@@ -6493,22 +6493,22 @@
         <v>1508.970645214177</v>
       </c>
       <c r="T29" t="n">
-        <v>1286.226725594945</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="U29" t="n">
-        <v>1102.890708437559</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="V29" t="n">
-        <v>771.8278210939882</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="W29" t="n">
-        <v>419.059165823874</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="X29" t="n">
-        <v>419.059165823874</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="Y29" t="n">
-        <v>419.059165823874</v>
+        <v>1118.831313238366</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>515.0842197075859</v>
+        <v>597.4593063921106</v>
       </c>
       <c r="C30" t="n">
-        <v>340.6311904264589</v>
+        <v>597.4593063921106</v>
       </c>
       <c r="D30" t="n">
-        <v>191.6967807652077</v>
+        <v>448.5248967308594</v>
       </c>
       <c r="E30" t="n">
-        <v>32.45932575975218</v>
+        <v>289.2874417254039</v>
       </c>
       <c r="F30" t="n">
-        <v>32.45932575975218</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="G30" t="n">
-        <v>32.45932575975218</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H30" t="n">
         <v>32.45932575975218</v>
@@ -6542,22 +6542,22 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J30" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K30" t="n">
-        <v>236.9655055809357</v>
+        <v>91.88297124942886</v>
       </c>
       <c r="L30" t="n">
-        <v>534.6972605625989</v>
+        <v>389.614726231092</v>
       </c>
       <c r="M30" t="n">
-        <v>934.1153971668618</v>
+        <v>789.032862835355</v>
       </c>
       <c r="N30" t="n">
-        <v>948.4732699082806</v>
+        <v>1190.717019112288</v>
       </c>
       <c r="O30" t="n">
-        <v>1271.486777082839</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="P30" t="n">
         <v>1513.730526286846</v>
@@ -6566,28 +6566,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R30" t="n">
-        <v>1588.300820658085</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S30" t="n">
-        <v>1588.300820658085</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T30" t="n">
-        <v>1588.300820658085</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U30" t="n">
-        <v>1588.300820658085</v>
+        <v>1435.523799110867</v>
       </c>
       <c r="V30" t="n">
-        <v>1353.148712426342</v>
+        <v>1435.523799110867</v>
       </c>
       <c r="W30" t="n">
-        <v>1098.911355698141</v>
+        <v>1181.286442382665</v>
       </c>
       <c r="X30" t="n">
-        <v>891.0598554926078</v>
+        <v>973.4349421771326</v>
       </c>
       <c r="Y30" t="n">
-        <v>683.2995567276539</v>
+        <v>765.6746434121787</v>
       </c>
     </row>
     <row r="31">
@@ -6642,13 +6642,13 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q31" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R31" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S31" t="n">
-        <v>261.5666648398646</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="T31" t="n">
         <v>32.45932575975218</v>
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>968.7637269953004</v>
+        <v>1221.101786128249</v>
       </c>
       <c r="C32" t="n">
-        <v>968.7637269953004</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="D32" t="n">
-        <v>968.7637269953004</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="E32" t="n">
-        <v>968.7637269953004</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="F32" t="n">
-        <v>558.9237552812577</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G32" t="n">
-        <v>558.9237552812577</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H32" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I32" t="n">
         <v>32.45932575975218</v>
@@ -6706,7 +6706,7 @@
         <v>247.3580469011318</v>
       </c>
       <c r="L32" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M32" t="n">
         <v>838.8947028941454</v>
@@ -6733,19 +6733,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U32" t="n">
-        <v>1369.129404919863</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V32" t="n">
-        <v>1038.066517576292</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W32" t="n">
-        <v>968.7637269953004</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X32" t="n">
-        <v>968.7637269953004</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y32" t="n">
-        <v>968.7637269953004</v>
+        <v>1607.701626192371</v>
       </c>
     </row>
     <row r="33">
@@ -6755,7 +6755,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>32.45932575975218</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C33" t="n">
         <v>32.45932575975218</v>
@@ -6797,7 +6797,7 @@
         <v>1454.30688079717</v>
       </c>
       <c r="P33" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q33" t="n">
         <v>1622.966287987609</v>
@@ -6806,25 +6806,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S33" t="n">
-        <v>1534.78160306728</v>
+        <v>1541.019295328339</v>
       </c>
       <c r="T33" t="n">
-        <v>1333.878594172773</v>
+        <v>1340.116286433832</v>
       </c>
       <c r="U33" t="n">
-        <v>1105.675926710251</v>
+        <v>1111.91361897131</v>
       </c>
       <c r="V33" t="n">
-        <v>870.5238184785085</v>
+        <v>876.7615107395675</v>
       </c>
       <c r="W33" t="n">
-        <v>616.2864617503069</v>
+        <v>622.5241540113659</v>
       </c>
       <c r="X33" t="n">
-        <v>408.4349615447741</v>
+        <v>414.6726538058331</v>
       </c>
       <c r="Y33" t="n">
-        <v>200.6746627798202</v>
+        <v>206.9123550408792</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1294.179012144411</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="C34" t="n">
-        <v>1294.179012144411</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="D34" t="n">
-        <v>1294.179012144411</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="E34" t="n">
-        <v>1294.179012144411</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="F34" t="n">
-        <v>1294.179012144411</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="G34" t="n">
-        <v>1294.179012144411</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="H34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K34" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L34" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M34" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N34" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O34" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.966287987609</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.966287987609</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="U34" t="n">
-        <v>1622.966287987609</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="V34" t="n">
-        <v>1622.966287987609</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="W34" t="n">
-        <v>1622.966287987609</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="X34" t="n">
-        <v>1622.966287987609</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="Y34" t="n">
-        <v>1402.173708844079</v>
+        <v>193.9514651575251</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>32.45932575975218</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="C35" t="n">
-        <v>32.45932575975218</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="D35" t="n">
-        <v>32.45932575975218</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="E35" t="n">
-        <v>32.45932575975218</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="F35" t="n">
-        <v>32.45932575975218</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G35" t="n">
         <v>32.45932575975218</v>
@@ -6943,10 +6943,10 @@
         <v>247.3580469011318</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
@@ -6961,28 +6961,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R35" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S35" t="n">
-        <v>1508.970645214177</v>
+        <v>1465.022520782882</v>
       </c>
       <c r="T35" t="n">
-        <v>1479.895958610329</v>
+        <v>1242.278601163649</v>
       </c>
       <c r="U35" t="n">
-        <v>1479.895958610329</v>
+        <v>1242.278601163649</v>
       </c>
       <c r="V35" t="n">
-        <v>1148.833071266758</v>
+        <v>1242.278601163649</v>
       </c>
       <c r="W35" t="n">
-        <v>796.0644159966438</v>
+        <v>1242.278601163649</v>
       </c>
       <c r="X35" t="n">
-        <v>422.5986577355639</v>
+        <v>1242.278601163649</v>
       </c>
       <c r="Y35" t="n">
-        <v>32.45932575975218</v>
+        <v>852.1392691878377</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>366.1498100463347</v>
+        <v>910.3247089140674</v>
       </c>
       <c r="C36" t="n">
-        <v>191.6967807652077</v>
+        <v>735.8716796329404</v>
       </c>
       <c r="D36" t="n">
-        <v>191.6967807652077</v>
+        <v>586.9372699716891</v>
       </c>
       <c r="E36" t="n">
-        <v>32.45932575975218</v>
+        <v>427.6998149662337</v>
       </c>
       <c r="F36" t="n">
-        <v>32.45932575975218</v>
+        <v>281.1652569931186</v>
       </c>
       <c r="G36" t="n">
-        <v>32.45932575975218</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H36" t="n">
         <v>32.45932575975218</v>
@@ -7019,22 +7019,22 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K36" t="n">
-        <v>61.20822116384403</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L36" t="n">
-        <v>256.6067387278473</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M36" t="n">
-        <v>656.0248753321102</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N36" t="n">
-        <v>1057.709031609043</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O36" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P36" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q36" t="n">
         <v>1622.966287987609</v>
@@ -7043,25 +7043,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S36" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T36" t="n">
-        <v>1622.966287987609</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U36" t="n">
-        <v>1439.366410996834</v>
+        <v>1078.540045934135</v>
       </c>
       <c r="V36" t="n">
-        <v>1204.214302765091</v>
+        <v>1078.540045934135</v>
       </c>
       <c r="W36" t="n">
-        <v>949.9769460368893</v>
+        <v>1078.540045934135</v>
       </c>
       <c r="X36" t="n">
-        <v>742.1254458313565</v>
+        <v>1078.540045934135</v>
       </c>
       <c r="Y36" t="n">
-        <v>534.3651470664026</v>
+        <v>1078.540045934135</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C37" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D37" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E37" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F37" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G37" t="n">
-        <v>191.8257232724345</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H37" t="n">
         <v>32.45932575975218</v>
@@ -7125,22 +7125,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T37" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="U37" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V37" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W37" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X37" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y37" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>32.45932575975219</v>
+        <v>1010.083036392565</v>
       </c>
       <c r="C38" t="n">
-        <v>32.45932575975219</v>
+        <v>1010.083036392565</v>
       </c>
       <c r="D38" t="n">
-        <v>32.45932575975219</v>
+        <v>1010.083036392565</v>
       </c>
       <c r="E38" t="n">
-        <v>32.45932575975219</v>
+        <v>1010.083036392565</v>
       </c>
       <c r="F38" t="n">
-        <v>32.45932575975219</v>
+        <v>600.2430646785224</v>
       </c>
       <c r="G38" t="n">
-        <v>32.45932575975219</v>
+        <v>190.4030929644796</v>
       </c>
       <c r="H38" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I38" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J38" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K38" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L38" t="n">
         <v>519.4894913528324</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
@@ -7204,22 +7204,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T38" t="n">
-        <v>1622.966287987609</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U38" t="n">
-        <v>1479.895958610329</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="V38" t="n">
-        <v>1148.833071266758</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="W38" t="n">
-        <v>796.0644159966438</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="X38" t="n">
-        <v>422.5986577355639</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="Y38" t="n">
-        <v>32.45932575975219</v>
+        <v>1010.083036392565</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>206.9123550408792</v>
+        <v>121.3571126583155</v>
       </c>
       <c r="C39" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D39" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E39" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F39" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G39" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H39" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I39" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J39" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K39" t="n">
-        <v>61.20822116384403</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L39" t="n">
-        <v>358.9399761455072</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="M39" t="n">
-        <v>758.3581127497702</v>
+        <v>607.6347467811067</v>
       </c>
       <c r="N39" t="n">
-        <v>1160.042269026703</v>
+        <v>1009.31890305804</v>
       </c>
       <c r="O39" t="n">
-        <v>1483.055776201262</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P39" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q39" t="n">
         <v>1622.966287987609</v>
@@ -7280,25 +7280,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S39" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T39" t="n">
-        <v>1508.3316234539</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U39" t="n">
-        <v>1280.128955991378</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V39" t="n">
-        <v>1044.976847759636</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="W39" t="n">
-        <v>790.739491031434</v>
+        <v>536.9689116288023</v>
       </c>
       <c r="X39" t="n">
-        <v>582.8879908259012</v>
+        <v>329.1174114232695</v>
       </c>
       <c r="Y39" t="n">
-        <v>375.1276920609473</v>
+        <v>121.3571126583155</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C40" t="n">
-        <v>32.45932575975219</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="D40" t="n">
-        <v>32.45932575975219</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="E40" t="n">
-        <v>32.45932575975219</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="F40" t="n">
-        <v>32.45932575975219</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="G40" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H40" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I40" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J40" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K40" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L40" t="n">
         <v>107.0302722280248</v>
@@ -7353,31 +7353,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q40" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R40" t="n">
-        <v>129.4902764300189</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S40" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T40" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U40" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V40" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W40" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X40" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y40" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>32.45932575975218</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="C41" t="n">
-        <v>32.45932575975218</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="D41" t="n">
-        <v>32.45932575975218</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="E41" t="n">
-        <v>32.45932575975218</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="F41" t="n">
-        <v>32.45932575975218</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G41" t="n">
         <v>32.45932575975218</v>
@@ -7438,25 +7438,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S41" t="n">
-        <v>1622.966287987609</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T41" t="n">
-        <v>1622.966287987609</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="U41" t="n">
-        <v>1369.129404919863</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="V41" t="n">
-        <v>1148.833071266758</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="W41" t="n">
-        <v>796.0644159966438</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="X41" t="n">
-        <v>422.5986577355639</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="Y41" t="n">
-        <v>32.45932575975218</v>
+        <v>1035.258356178821</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>783.6358765083228</v>
+        <v>653.4965929484157</v>
       </c>
       <c r="C42" t="n">
-        <v>609.1828472271958</v>
+        <v>479.0435636672887</v>
       </c>
       <c r="D42" t="n">
-        <v>460.2484375659445</v>
+        <v>330.1091540060374</v>
       </c>
       <c r="E42" t="n">
-        <v>301.010982560489</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="F42" t="n">
-        <v>154.476424587374</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G42" t="n">
         <v>32.45932575975218</v>
@@ -7490,25 +7490,25 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J42" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K42" t="n">
-        <v>61.20822116384403</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L42" t="n">
-        <v>358.9399761455072</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M42" t="n">
-        <v>758.3581127497702</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N42" t="n">
-        <v>1160.042269026703</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O42" t="n">
-        <v>1483.055776201262</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P42" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q42" t="n">
         <v>1622.966287987609</v>
@@ -7523,19 +7523,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U42" t="n">
-        <v>1394.763620525087</v>
+        <v>1518.952895133961</v>
       </c>
       <c r="V42" t="n">
-        <v>1159.611512293345</v>
+        <v>1283.800786902218</v>
       </c>
       <c r="W42" t="n">
-        <v>1159.611512293345</v>
+        <v>1029.563430174017</v>
       </c>
       <c r="X42" t="n">
-        <v>1159.611512293345</v>
+        <v>821.7119299684837</v>
       </c>
       <c r="Y42" t="n">
-        <v>951.8512135283909</v>
+        <v>821.7119299684837</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="E43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="F43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="G43" t="n">
-        <v>1455.671151542184</v>
+        <v>191.8257232724345</v>
       </c>
       <c r="H43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K43" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L43" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M43" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N43" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O43" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1622.966287987609</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="C44" t="n">
-        <v>1622.966287987609</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="D44" t="n">
-        <v>1622.966287987609</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="E44" t="n">
-        <v>1237.178035389365</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="F44" t="n">
-        <v>827.338063675322</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G44" t="n">
-        <v>417.4980919612793</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H44" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I44" t="n">
         <v>32.45932575975218</v>
@@ -7672,28 +7672,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R44" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S44" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T44" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="U44" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="V44" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="W44" t="n">
-        <v>1622.966287987609</v>
+        <v>1242.278601163649</v>
       </c>
       <c r="X44" t="n">
-        <v>1622.966287987609</v>
+        <v>1242.278601163649</v>
       </c>
       <c r="Y44" t="n">
-        <v>1622.966287987609</v>
+        <v>852.1392691878377</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>206.9123550408792</v>
+        <v>910.3247089140674</v>
       </c>
       <c r="C45" t="n">
-        <v>32.45932575975218</v>
+        <v>735.8716796329404</v>
       </c>
       <c r="D45" t="n">
-        <v>32.45932575975218</v>
+        <v>586.9372699716891</v>
       </c>
       <c r="E45" t="n">
-        <v>32.45932575975218</v>
+        <v>427.6998149662337</v>
       </c>
       <c r="F45" t="n">
-        <v>32.45932575975218</v>
+        <v>281.1652569931186</v>
       </c>
       <c r="G45" t="n">
-        <v>32.45932575975218</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H45" t="n">
         <v>32.45932575975218</v>
@@ -7727,52 +7727,52 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J45" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K45" t="n">
-        <v>236.9655055809357</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L45" t="n">
-        <v>534.6972605625989</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M45" t="n">
-        <v>934.1153971668618</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N45" t="n">
-        <v>1335.799553443795</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O45" t="n">
-        <v>1513.730526286846</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P45" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q45" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R45" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S45" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T45" t="n">
-        <v>1173.163483952</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="U45" t="n">
-        <v>944.9608164894781</v>
+        <v>1313.692154165878</v>
       </c>
       <c r="V45" t="n">
-        <v>944.9608164894781</v>
+        <v>1078.540045934135</v>
       </c>
       <c r="W45" t="n">
-        <v>690.7234597612764</v>
+        <v>1078.540045934135</v>
       </c>
       <c r="X45" t="n">
-        <v>482.8719595557436</v>
+        <v>1078.540045934135</v>
       </c>
       <c r="Y45" t="n">
-        <v>275.1116607907897</v>
+        <v>1078.540045934135</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>32.45932575975218</v>
+        <v>350.3873855140033</v>
       </c>
       <c r="C46" t="n">
-        <v>32.45932575975218</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="D46" t="n">
-        <v>32.45932575975218</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="E46" t="n">
-        <v>32.45932575975218</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="F46" t="n">
-        <v>32.45932575975218</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="G46" t="n">
-        <v>32.45932575975218</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="H46" t="n">
-        <v>32.45932575975218</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="I46" t="n">
         <v>32.45932575975218</v>
@@ -7827,31 +7827,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q46" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R46" t="n">
-        <v>261.5666648398646</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S46" t="n">
-        <v>261.5666648398646</v>
+        <v>350.3873855140033</v>
       </c>
       <c r="T46" t="n">
-        <v>32.45932575975218</v>
+        <v>350.3873855140033</v>
       </c>
       <c r="U46" t="n">
-        <v>32.45932575975218</v>
+        <v>350.3873855140033</v>
       </c>
       <c r="V46" t="n">
-        <v>32.45932575975218</v>
+        <v>350.3873855140033</v>
       </c>
       <c r="W46" t="n">
-        <v>32.45932575975218</v>
+        <v>350.3873855140033</v>
       </c>
       <c r="X46" t="n">
-        <v>32.45932575975218</v>
+        <v>350.3873855140033</v>
       </c>
       <c r="Y46" t="n">
-        <v>32.45932575975218</v>
+        <v>350.3873855140033</v>
       </c>
     </row>
   </sheetData>
@@ -8066,16 +8066,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8303,16 +8303,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>177.2597568922521</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8543,16 +8543,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O9" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8780,16 +8780,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>455.0874215304797</v>
+        <v>419.1643094528387</v>
       </c>
       <c r="O12" t="n">
-        <v>112.9628022719299</v>
+        <v>67.58604940343854</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,19 +9005,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K15" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>157.1342855878806</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>455.0874215304797</v>
+        <v>203.2271928126415</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,19 +9242,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>186.1735738748421</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>455.0874215304797</v>
+        <v>63.84875129258673</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9482,25 +9482,25 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K21" t="n">
-        <v>86.93262649026374</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L21" t="n">
-        <v>296.5127271079358</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>455.0874215304796</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444137</v>
       </c>
       <c r="Q21" t="n">
-        <v>99.73813450275541</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344739</v>
       </c>
       <c r="K24" t="n">
         <v>86.93262649026377</v>
@@ -9728,16 +9728,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>455.0874215304798</v>
+        <v>380.7598033349564</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>104.7567089243589</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,16 +9965,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>418.8785602873039</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>73.77211287831324</v>
+        <v>104.7567089243584</v>
       </c>
       <c r="Q27" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>146.9565108232705</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10202,13 +10202,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>63.84875129258624</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831324</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10445,10 +10445,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>133.7959972113199</v>
+        <v>244.1351504444137</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>267.4734388209744</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>455.0874215304797</v>
+        <v>63.84875129258624</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K39" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>70.10119885733474</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10916,13 +10916,13 @@
         <v>455.0874215304797</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>332.4020837719221</v>
       </c>
       <c r="P39" t="n">
-        <v>215.0958621574524</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K42" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>103.505681799068</v>
       </c>
       <c r="N42" t="n">
         <v>455.0874215304797</v>
@@ -11156,10 +11156,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>215.0958621574522</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11308,7 +11308,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119841</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11390,13 +11390,13 @@
         <v>455.0874215304797</v>
       </c>
       <c r="O45" t="n">
-        <v>247.31430480046</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>73.77211287831324</v>
+        <v>244.1351504444137</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23269,16 +23269,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G11" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H11" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
-        <v>187.7594695105699</v>
+        <v>107.2538563849466</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>195.5929138346465</v>
@@ -23314,19 +23314,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>330.1753685766006</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23339,7 +23339,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23351,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>81.801353899611</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23399,13 +23399,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>190.5475149467566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23436,10 +23436,10 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I13" t="n">
-        <v>126.1137933559314</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S13" t="n">
         <v>219.4103988718534</v>
@@ -23472,13 +23472,13 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>247.3282077095205</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>325.7171596691391</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23542,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
-        <v>31.86954967785096</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>11.89148115178713</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23627,10 +23627,10 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
-        <v>44.25227630748128</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23670,13 +23670,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H16" t="n">
-        <v>120.5819502228691</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R16" t="n">
         <v>165.4090611368575</v>
@@ -23712,7 +23712,7 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>145.2228935911568</v>
       </c>
     </row>
     <row r="17">
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>25.23436930630817</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G17" t="n">
         <v>414.7135041305339</v>
@@ -23782,25 +23782,25 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S17" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0942155799726</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -23822,7 +23822,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>75.77825856494137</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23831,7 +23831,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I18" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>80.58358449827553</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
-        <v>198.8939788055617</v>
+        <v>128.2674342444332</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>109.4206823911419</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23946,13 +23946,13 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>247.3282077095207</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,7 +23977,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23989,7 +23989,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I20" t="n">
-        <v>187.7594695105699</v>
+        <v>138.0104828877138</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>195.5929138346465</v>
@@ -24028,16 +24028,16 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>290.814118274638</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24053,13 +24053,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.0282495084215</v>
@@ -24095,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>71.55960542206329</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>25.31223282070886</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24180,16 +24180,16 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>187.8398609411363</v>
+        <v>247.3282077095206</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,19 +24208,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>1.1344737448091</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>8.971932133631583</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H23" t="n">
         <v>333.4403157157206</v>
@@ -24262,13 +24262,13 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2985142370684</v>
+        <v>130.1463854902179</v>
       </c>
       <c r="V23" t="n">
-        <v>295.8048486480358</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24287,7 +24287,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24341,7 +24341,7 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U24" t="n">
-        <v>191.6018281316673</v>
+        <v>18.89332914335196</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24408,25 +24408,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S25" t="n">
         <v>219.4103988718534</v>
       </c>
       <c r="T25" t="n">
-        <v>130.7556245257473</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3046124576955</v>
+        <v>247.3282077095207</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24454,16 +24454,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G26" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H26" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,22 +24490,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>69.79585725125591</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>122.2352371972827</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24521,16 +24521,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -24539,7 +24539,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>78.54202280713804</v>
@@ -24572,25 +24572,25 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
-        <v>165.8272126914158</v>
+        <v>39.26865986869589</v>
       </c>
       <c r="T27" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>222.0043068725532</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24606,13 +24606,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>114.9710806029468</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.7266695472104</v>
@@ -24648,7 +24648,7 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S28" t="n">
         <v>219.4103988718534</v>
@@ -24657,7 +24657,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U28" t="n">
-        <v>126.2142705097871</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24691,10 +24691,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G29" t="n">
-        <v>414.7135041305339</v>
+        <v>127.6806501870896</v>
       </c>
       <c r="H29" t="n">
         <v>333.4403157157206</v>
@@ -24733,22 +24733,22 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U29" t="n">
-        <v>69.79585725125594</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24761,7 +24761,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -24770,13 +24770,13 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H30" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>78.54202280713804</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>46.26477184204647</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
         <v>165.8272126914158</v>
@@ -24815,10 +24815,10 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9206407878966</v>
+        <v>40.35257679992191</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -24882,16 +24882,16 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R31" t="n">
         <v>165.4090611368575</v>
       </c>
       <c r="S31" t="n">
-        <v>184.756962260743</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>120.7272614763988</v>
       </c>
       <c r="U31" t="n">
         <v>286.3046124576955</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24931,13 +24931,13 @@
         <v>1.134473744809156</v>
       </c>
       <c r="G32" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,19 +24973,19 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>280.6312060422309</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>371.125923478768</v>
       </c>
     </row>
     <row r="33">
@@ -24995,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25046,7 +25046,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S33" t="n">
-        <v>78.52437462028948</v>
+        <v>84.69968995873791</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>72.91723044926633</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25092,7 +25092,7 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H34" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>147.5019580580808</v>
@@ -25125,7 +25125,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S34" t="n">
-        <v>219.4103988718534</v>
+        <v>53.78821379088268</v>
       </c>
       <c r="T34" t="n">
         <v>226.8162656893113</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25165,10 +25165,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G35" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H35" t="n">
         <v>333.4403157157206</v>
@@ -25201,25 +25201,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S35" t="n">
-        <v>195.5929138346465</v>
+        <v>39.22858430196635</v>
       </c>
       <c r="T35" t="n">
-        <v>191.7325406852298</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25238,19 +25238,19 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>78.54202280713804</v>
@@ -25283,25 +25283,25 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>44.15676256702881</v>
+        <v>51.65985265193504</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H37" t="n">
-        <v>2.104484466239711</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I37" t="n">
         <v>147.5019580580808</v>
@@ -25365,10 +25365,10 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T37" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3046124576955</v>
+        <v>187.6214750622408</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25402,13 +25402,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G38" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H38" t="n">
-        <v>333.4403157157206</v>
+        <v>177.0759861830404</v>
       </c>
       <c r="I38" t="n">
         <v>187.7594695105699</v>
@@ -25444,19 +25444,19 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T38" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>109.6588881535606</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25469,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>84.69968995873801</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25520,10 +25520,10 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>85.40566091718938</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>9.474087561072338</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>159.8772180037952</v>
@@ -25593,13 +25593,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S40" t="n">
-        <v>123.3497577082893</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T40" t="n">
         <v>226.8162656893113</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>201.4459455424071</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25639,10 +25639,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G41" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H41" t="n">
         <v>333.4403157157206</v>
@@ -25678,22 +25678,22 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V41" t="n">
-        <v>109.6588881535608</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25718,10 +25718,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>16.23132166907585</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>109.1906224126114</v>
@@ -25763,19 +25763,19 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>122.9473818627847</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>2.10448446623991</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2.104484466239711</v>
       </c>
       <c r="I43" t="n">
         <v>147.5019580580808</v>
@@ -25873,7 +25873,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>1.134473744809156</v>
@@ -25882,10 +25882,10 @@
         <v>8.97193213363164</v>
       </c>
       <c r="H44" t="n">
-        <v>140.0114066867787</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>195.5929138346465</v>
@@ -25927,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>85.21584510739052</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25943,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>99.01587095745595</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>78.54202280713804</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>85.56646099579868</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26043,7 +26043,7 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I46" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>74.67247646141476</v>
@@ -26067,16 +26067,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R46" t="n">
-        <v>130.7556245257472</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S46" t="n">
-        <v>219.4103988718534</v>
+        <v>208.6597749437961</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U46" t="n">
         <v>286.3046124576955</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>534066.9045694555</v>
+        <v>534066.9045694553</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>534066.9045694555</v>
+        <v>534066.9045694554</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>534066.9045694554</v>
+        <v>534066.9045694552</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>534066.9045694554</v>
+        <v>534066.9045694553</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>534066.9045694555</v>
+        <v>534066.9045694552</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>534066.9045694554</v>
+        <v>534066.9045694555</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>534066.9045694555</v>
+        <v>534066.9045694554</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>534066.9045694553</v>
+        <v>534066.9045694555</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>534066.9045694555</v>
+        <v>534066.9045694553</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>534066.9045694557</v>
+        <v>534066.9045694555</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>534066.9045694554</v>
+        <v>534066.9045694557</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="D2" t="n">
         <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
+        <v>256354.6764775275</v>
+      </c>
+      <c r="F2" t="n">
+        <v>256354.6764775277</v>
+      </c>
+      <c r="G2" t="n">
         <v>256354.6764775276</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>256354.6764775277</v>
+      </c>
+      <c r="I2" t="n">
         <v>256354.6764775276</v>
       </c>
-      <c r="G2" t="n">
-        <v>256354.6764775278</v>
-      </c>
-      <c r="H2" t="n">
-        <v>256354.6764775278</v>
-      </c>
-      <c r="I2" t="n">
-        <v>256354.6764775277</v>
-      </c>
       <c r="J2" t="n">
-        <v>256354.6764775278</v>
+        <v>256354.6764775276</v>
       </c>
       <c r="K2" t="n">
-        <v>256354.6764775277</v>
+        <v>256354.6764775276</v>
       </c>
       <c r="L2" t="n">
         <v>256354.6764775276</v>
       </c>
       <c r="M2" t="n">
-        <v>256354.6764775278</v>
+        <v>256354.6764775276</v>
       </c>
       <c r="N2" t="n">
-        <v>256354.6764775278</v>
+        <v>256354.6764775276</v>
       </c>
       <c r="O2" t="n">
-        <v>256354.6764775277</v>
+        <v>256354.6764775276</v>
       </c>
       <c r="P2" t="n">
-        <v>256354.6764775277</v>
+        <v>256354.6764775276</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910621</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.69786244791</v>
+        <v>41050.6978624479</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26481,7 +26481,7 @@
         <v>27864.35291375756</v>
       </c>
       <c r="F5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="G5" t="n">
         <v>27864.35291375757</v>
@@ -26490,7 +26490,7 @@
         <v>27864.35291375756</v>
       </c>
       <c r="I5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="J5" t="n">
         <v>27864.35291375756</v>
@@ -26505,7 +26505,7 @@
         <v>27864.35291375756</v>
       </c>
       <c r="N5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="O5" t="n">
         <v>27864.35291375756</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42611.40863290506</v>
+        <v>42611.408632905</v>
       </c>
       <c r="C6" t="n">
+        <v>123380.8401644528</v>
+      </c>
+      <c r="D6" t="n">
         <v>123380.8401644527</v>
       </c>
-      <c r="D6" t="n">
-        <v>123380.8401644528</v>
-      </c>
       <c r="E6" t="n">
-        <v>18523.7534146146</v>
+        <v>8679.154021237722</v>
       </c>
       <c r="F6" t="n">
-        <v>185463.9235398613</v>
+        <v>175619.3241464847</v>
       </c>
       <c r="G6" t="n">
-        <v>185463.9235398615</v>
+        <v>175619.3241464846</v>
       </c>
       <c r="H6" t="n">
-        <v>185463.9235398615</v>
+        <v>175619.3241464846</v>
       </c>
       <c r="I6" t="n">
-        <v>185463.9235398615</v>
+        <v>175619.3241464846</v>
       </c>
       <c r="J6" t="n">
-        <v>122403.9809407553</v>
+        <v>112559.3815473783</v>
       </c>
       <c r="K6" t="n">
-        <v>185463.9235398615</v>
+        <v>175619.3241464845</v>
       </c>
       <c r="L6" t="n">
-        <v>185463.9235398613</v>
+        <v>175619.3241464846</v>
       </c>
       <c r="M6" t="n">
-        <v>144413.2256774136</v>
+        <v>134568.6262840367</v>
       </c>
       <c r="N6" t="n">
-        <v>185463.9235398615</v>
+        <v>175619.3241464846</v>
       </c>
       <c r="O6" t="n">
-        <v>185463.9235398615</v>
+        <v>175619.3241464846</v>
       </c>
       <c r="P6" t="n">
-        <v>185463.9235398614</v>
+        <v>175619.3241464846</v>
       </c>
     </row>
   </sheetData>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>166.5678786463162</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>40.85345576880712</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27460,10 +27460,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27478,10 +27478,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27520,10 +27520,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>15.33917480125569</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>34.29696759780947</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27587,7 +27587,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>115.8205630125936</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27627,19 +27627,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>20.13049249612121</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27669,16 +27669,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>42.97994639208056</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27712,7 +27712,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27742,19 +27742,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>119.652489182596</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>137.2480663489321</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27794,13 +27794,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>111.1469913286911</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27833,7 +27833,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>143.9416082994493</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>176.5257285886998</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>342.8322390905863</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27897,13 +27897,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27943,16 +27943,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>50.35399691719151</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,25 +27982,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>124.4911778506341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>49.36645333167576</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28034,10 +28034,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011533</v>
       </c>
       <c r="H17" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046562</v>
       </c>
       <c r="I17" t="n">
-        <v>22.71642005983599</v>
+        <v>22.71642005983598</v>
       </c>
       <c r="J17" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629218</v>
       </c>
       <c r="K17" t="n">
-        <v>74.95269614645905</v>
+        <v>74.952696146459</v>
       </c>
       <c r="L17" t="n">
-        <v>92.98544734044661</v>
+        <v>92.98544734044657</v>
       </c>
       <c r="M17" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N17" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O17" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971764</v>
       </c>
       <c r="P17" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737666</v>
       </c>
       <c r="Q17" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134784</v>
       </c>
       <c r="R17" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S17" t="n">
-        <v>13.4271557515988</v>
+        <v>13.42715575159879</v>
       </c>
       <c r="T17" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809225</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,43 +32305,43 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H18" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885099</v>
       </c>
       <c r="I18" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J18" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K18" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409522</v>
       </c>
       <c r="L18" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253943</v>
       </c>
       <c r="M18" t="n">
-        <v>79.88163340864767</v>
+        <v>79.88163340864764</v>
       </c>
       <c r="N18" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975588</v>
       </c>
       <c r="O18" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100587</v>
       </c>
       <c r="P18" t="n">
-        <v>60.20229453601702</v>
+        <v>60.202294536017</v>
       </c>
       <c r="Q18" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R18" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S18" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422064</v>
       </c>
       <c r="T18" t="n">
         <v>1.270749889259948</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483453</v>
       </c>
       <c r="H19" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644381</v>
       </c>
       <c r="I19" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177515</v>
       </c>
       <c r="J19" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525801</v>
       </c>
       <c r="K19" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L19" t="n">
-        <v>39.29566048323129</v>
+        <v>39.29566048323128</v>
       </c>
       <c r="M19" t="n">
-        <v>41.43176432141109</v>
+        <v>41.43176432141108</v>
       </c>
       <c r="N19" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039455</v>
       </c>
       <c r="O19" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172068</v>
       </c>
       <c r="P19" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225441</v>
       </c>
       <c r="Q19" t="n">
         <v>22.13234246735009</v>
       </c>
       <c r="R19" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S19" t="n">
-        <v>4.606199165118891</v>
+        <v>4.606199165118889</v>
       </c>
       <c r="T19" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H20" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I20" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J20" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K20" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L20" t="n">
-        <v>92.98544734044661</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M20" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N20" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O20" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P20" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R20" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S20" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T20" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,43 +32542,43 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H21" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I21" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J21" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K21" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L21" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M21" t="n">
-        <v>79.88163340864767</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N21" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O21" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P21" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R21" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S21" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T21" t="n">
         <v>1.270749889259948</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H22" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I22" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J22" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K22" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L22" t="n">
         <v>39.29566048323129</v>
@@ -32645,7 +32645,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O22" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P22" t="n">
         <v>31.96707026225442</v>
@@ -32654,16 +32654,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R22" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S22" t="n">
-        <v>4.606199165118891</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T22" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34786,16 +34786,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N3" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O3" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35023,16 +35023,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35263,16 +35263,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>177.5326105223149</v>
@@ -35500,16 +35500,16 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N12" t="n">
-        <v>405.7415719969023</v>
+        <v>369.8184599192613</v>
       </c>
       <c r="O12" t="n">
-        <v>45.37675286849139</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>244.6906557616239</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L15" t="n">
-        <v>87.03308673054592</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M15" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N15" t="n">
-        <v>405.7415719969023</v>
+        <v>153.8813432790641</v>
       </c>
       <c r="O15" t="n">
         <v>326.276269873291</v>
@@ -35746,7 +35746,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167966</v>
       </c>
       <c r="K17" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L17" t="n">
         <v>274.8802469209098</v>
@@ -35895,7 +35895,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N17" t="n">
-        <v>313.0722467132387</v>
+        <v>313.0722467132386</v>
       </c>
       <c r="O17" t="n">
         <v>249.9811662707763</v>
@@ -35904,7 +35904,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q17" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680303</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>29.03928828696145</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L18" t="n">
-        <v>116.0723750175074</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M18" t="n">
-        <v>403.4526632366293</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N18" t="n">
-        <v>405.7415719969023</v>
+        <v>14.50290175900931</v>
       </c>
       <c r="O18" t="n">
         <v>326.276269873291</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243084</v>
       </c>
       <c r="L19" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354741</v>
       </c>
       <c r="M19" t="n">
-        <v>81.01564128325168</v>
+        <v>81.01564128325167</v>
       </c>
       <c r="N19" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962314</v>
       </c>
       <c r="O19" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P19" t="n">
-        <v>29.24562952714791</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K20" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L20" t="n">
         <v>274.8802469209098</v>
@@ -36141,7 +36141,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36205,10 +36205,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>226.4115282506011</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M21" t="n">
-        <v>403.4526632366293</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N21" t="n">
         <v>405.7415719969023</v>
@@ -36217,7 +36217,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P21" t="n">
-        <v>244.6906557616239</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L22" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M22" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N22" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O22" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P22" t="n">
-        <v>29.24562952714791</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>29.03928828696145</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36448,16 +36448,16 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N24" t="n">
-        <v>405.7415719969023</v>
+        <v>331.413953801379</v>
       </c>
       <c r="O24" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P24" t="n">
-        <v>30.98459604604563</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K27" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>300.7391464461244</v>
@@ -36685,16 +36685,16 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N27" t="n">
-        <v>369.5327107537265</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O27" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>30.98459604604517</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>177.5326105223148</v>
+        <v>60.02388433300675</v>
       </c>
       <c r="L30" t="n">
         <v>300.7391464461244</v>
@@ -36922,13 +36922,13 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N30" t="n">
-        <v>14.50290175900885</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O30" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P30" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>110.3391532330937</v>
@@ -37165,10 +37165,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P33" t="n">
-        <v>60.02388433300664</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,16 +37387,16 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L36" t="n">
-        <v>197.3722399636397</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M36" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N36" t="n">
-        <v>405.7415719969023</v>
+        <v>14.50290175900885</v>
       </c>
       <c r="O36" t="n">
         <v>326.276269873291</v>
@@ -37405,7 +37405,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L39" t="n">
-        <v>300.7391464461244</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>403.4526632366292</v>
@@ -37636,13 +37636,13 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O39" t="n">
-        <v>326.276269873291</v>
+        <v>264.8160343684835</v>
       </c>
       <c r="P39" t="n">
-        <v>141.3237492791392</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L42" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M42" t="n">
-        <v>403.4526632366292</v>
+        <v>41.25328128569732</v>
       </c>
       <c r="N42" t="n">
         <v>405.7415719969023</v>
@@ -37876,10 +37876,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P42" t="n">
-        <v>141.323749279139</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38028,7 +38028,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N44" t="n">
-        <v>313.0722467132385</v>
+        <v>313.0722467132387</v>
       </c>
       <c r="O44" t="n">
         <v>249.9811662707763</v>
@@ -38037,7 +38037,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q44" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680312</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>300.7391464461244</v>
@@ -38110,13 +38110,13 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O45" t="n">
-        <v>179.7282553970214</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_5_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_5_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1094619.949970948</v>
+        <v>1144512.726621947</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.7684111176</v>
+        <v>713587.7684111177</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11813519.2720521</v>
+        <v>11813519.27205211</v>
       </c>
     </row>
     <row r="9">
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>75.08620022294134</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -706,16 +706,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>168.1666138174382</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -743,22 +743,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -788,13 +788,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>110.4474014451885</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>171.476017605668</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>57.16776090941369</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>190.3453970742847</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -943,10 +943,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1025,7 +1025,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -1034,13 +1034,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>113.1480979668293</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1138,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>220.8837963815379</v>
       </c>
       <c r="F8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>72.47049842454874</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1180,10 +1180,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>144.4302359886468</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>61.88144731930495</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1335,7 +1335,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>80.50561312562328</v>
+        <v>178.4480676059682</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,13 +1426,13 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1448,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1463,10 +1463,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>55.22689560881044</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>165.8272126914158</v>
@@ -1505,19 +1505,19 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>202.2263084014618</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>39.19479062707046</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>39.19479062707047</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,16 +1609,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>39.55573210186845</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>26.16998903681045</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
         <v>220.5164804230398</v>
@@ -1666,10 +1666,10 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1688,16 +1688,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>137.0282495084215</v>
@@ -1706,7 +1706,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
-        <v>66.65054165535091</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>127.96133278962</v>
       </c>
       <c r="U15" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>39.19479062707047</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>73.36175976093797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,19 +1846,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>356.6960007659536</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>178.7714232145813</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S17" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1934,13 +1934,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>16.61457648020522</v>
       </c>
       <c r="I18" t="n">
         <v>78.54202280713804</v>
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>80.58358449827553</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
-        <v>70.62654456112848</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U18" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>38.97640474817486</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>38.97640474817486</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>117.3450705775779</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>49.74898662285611</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2162,13 +2162,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2216,16 +2216,16 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>180.4607523827686</v>
+        <v>202.4041172772122</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3046124576955</v>
+        <v>38.97640474817486</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>39.19479062707041</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>82.95506255100577</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2374,16 +2374,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>121.1521287468505</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2399,13 +2399,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2450,10 +2450,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>113.4883178883721</v>
       </c>
       <c r="U24" t="n">
-        <v>207.0273116445446</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2566,16 +2566,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
-        <v>129.0632770397856</v>
+        <v>95.26133250429032</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2636,22 +2636,22 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>88.00880902957773</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>126.5585528227199</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T27" t="n">
         <v>198.8939788055617</v>
@@ -2699,10 +2699,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2718,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>33.64439241526551</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>30.4499674199843</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="G29" t="n">
-        <v>287.0328539434444</v>
+        <v>400.6920118803606</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2870,25 +2870,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,16 +2921,16 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
-        <v>185.5680639879747</v>
+        <v>141.2209508291585</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>38.97640474817486</v>
       </c>
       <c r="S31" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>106.0890042129125</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>405.7415719969023</v>
+        <v>335.1507118685788</v>
       </c>
       <c r="G32" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,19 +3076,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>15.11201517728562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -3158,13 +3158,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>81.12752273267785</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9206407878966</v>
+        <v>140.514979870707</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.68313739545458</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>165.6221850809707</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>405.7415719969023</v>
+        <v>257.7670476654015</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>156.3643295326802</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T35" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3353,16 +3353,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>80.58358449827553</v>
       </c>
       <c r="S36" t="n">
         <v>165.8272126914158</v>
@@ -3401,19 +3401,19 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U36" t="n">
-        <v>174.2607881359615</v>
+        <v>0.9236755222856231</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>226.8162656893113</v>
+        <v>165.6221850809706</v>
       </c>
       <c r="U37" t="n">
-        <v>98.68313739545464</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3508,19 +3508,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>156.3643295326802</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>220.5164804230398</v>
+        <v>102.5095735391671</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3581,19 +3581,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>88.00880902957773</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>80.58358449827553</v>
       </c>
       <c r="S39" t="n">
         <v>165.8272126914158</v>
@@ -3638,19 +3638,19 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9206407878966</v>
+        <v>134.1230903552411</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>157.7727335375555</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>39.19479062707036</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>181.2878961210735</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3754,10 +3754,10 @@
         <v>405.7415719969023</v>
       </c>
       <c r="G41" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>256.4373811327352</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,19 +3787,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3821,13 +3821,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>189.1143398803281</v>
       </c>
       <c r="U42" t="n">
-        <v>102.9732589251119</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3884,10 +3884,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>157.7727335375555</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>106.0890042129125</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>74.93368842035949</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>264.0251236100225</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4109,22 +4109,22 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U45" t="n">
-        <v>140.3541797920979</v>
+        <v>141.2209508291585</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>10.7506239280573</v>
+        <v>106.9147497326711</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>297.2027203719481</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C2" t="n">
-        <v>297.2027203719481</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D2" t="n">
-        <v>297.2027203719481</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E2" t="n">
-        <v>53.75394372784808</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F2" t="n">
         <v>46.80844297864461</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>784.1002736601483</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>784.1002736601483</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>540.6514970160482</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V2" t="n">
-        <v>540.6514970160482</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W2" t="n">
-        <v>297.2027203719481</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X2" t="n">
-        <v>297.2027203719481</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y2" t="n">
-        <v>297.2027203719481</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>259.2693145670932</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="C3" t="n">
-        <v>259.2693145670932</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="D3" t="n">
-        <v>110.334904905842</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E3" t="n">
-        <v>110.334904905842</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F3" t="n">
-        <v>110.334904905842</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G3" t="n">
-        <v>110.334904905842</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4412,22 +4412,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4436,25 +4436,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>660.701031422288</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="U3" t="n">
-        <v>432.4774131586771</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="V3" t="n">
-        <v>432.4774131586771</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="W3" t="n">
-        <v>432.4774131586771</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="X3" t="n">
-        <v>259.2693145670932</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="Y3" t="n">
-        <v>259.2693145670932</v>
+        <v>577.9072497513741</v>
       </c>
     </row>
     <row r="4">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
         <v>41.77557929797318</v>
@@ -4515,25 +4515,25 @@
         <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>953.9655401424092</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="C5" t="n">
-        <v>953.9655401424092</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="D5" t="n">
-        <v>953.9655401424092</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="E5" t="n">
-        <v>953.9655401424092</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F5" t="n">
-        <v>710.516763498309</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>467.067986854209</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>223.6192102101089</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X5" t="n">
-        <v>953.9655401424092</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="Y5" t="n">
-        <v>953.9655401424092</v>
+        <v>104.5536560184564</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>110.334904905842</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="C6" t="n">
-        <v>110.334904905842</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="D6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4655,13 +4655,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4673,25 +4673,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>660.701031422288</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>432.4774131586771</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V6" t="n">
-        <v>318.1864051113748</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W6" t="n">
-        <v>318.1864051113748</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X6" t="n">
-        <v>110.334904905842</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="Y6" t="n">
-        <v>110.334904905842</v>
+        <v>23.90796037760316</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H7" t="n">
         <v>41.77557929797318</v>
@@ -4746,31 +4746,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V7" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W7" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D8" t="n">
-        <v>348.0024326625565</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E8" t="n">
-        <v>348.0024326625565</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="F8" t="n">
-        <v>104.5536560184564</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>172.8414173495843</v>
+        <v>486.9119902784999</v>
       </c>
       <c r="C9" t="n">
-        <v>172.8414173495843</v>
+        <v>312.4589609973729</v>
       </c>
       <c r="D9" t="n">
-        <v>172.8414173495843</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E9" t="n">
-        <v>172.8414173495843</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F9" t="n">
-        <v>172.8414173495843</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>172.8414173495843</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4889,46 +4889,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W9" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X9" t="n">
-        <v>380.6017161145382</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y9" t="n">
-        <v>172.8414173495843</v>
+        <v>655.1273272985679</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
         <v>41.77557929797318</v>
@@ -4983,31 +4983,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>933.4580703248309</v>
+        <v>1032.3898425272</v>
       </c>
       <c r="C11" t="n">
-        <v>933.4580703248309</v>
+        <v>1032.3898425272</v>
       </c>
       <c r="D11" t="n">
-        <v>933.4580703248309</v>
+        <v>1032.3898425272</v>
       </c>
       <c r="E11" t="n">
-        <v>933.4580703248309</v>
+        <v>1032.3898425272</v>
       </c>
       <c r="F11" t="n">
-        <v>523.6180986107881</v>
+        <v>622.5498708131568</v>
       </c>
       <c r="G11" t="n">
-        <v>113.7781268967454</v>
+        <v>212.709899099114</v>
       </c>
       <c r="H11" t="n">
-        <v>113.7781268967454</v>
+        <v>212.709899099114</v>
       </c>
       <c r="I11" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J11" t="n">
         <v>70.13987180521508</v>
@@ -5065,28 +5065,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R11" t="n">
-        <v>1508.970645214177</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S11" t="n">
-        <v>1508.970645214177</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T11" t="n">
         <v>1286.226725594945</v>
       </c>
       <c r="U11" t="n">
-        <v>1286.226725594945</v>
+        <v>1032.3898425272</v>
       </c>
       <c r="V11" t="n">
-        <v>1286.226725594945</v>
+        <v>1032.3898425272</v>
       </c>
       <c r="W11" t="n">
-        <v>933.4580703248309</v>
+        <v>1032.3898425272</v>
       </c>
       <c r="X11" t="n">
-        <v>933.4580703248309</v>
+        <v>1032.3898425272</v>
       </c>
       <c r="Y11" t="n">
-        <v>933.4580703248309</v>
+        <v>1032.3898425272</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>542.9504914387765</v>
+        <v>586.9372699716891</v>
       </c>
       <c r="C12" t="n">
-        <v>542.9504914387765</v>
+        <v>586.9372699716891</v>
       </c>
       <c r="D12" t="n">
-        <v>394.0160817775252</v>
+        <v>586.9372699716891</v>
       </c>
       <c r="E12" t="n">
-        <v>234.7786267720697</v>
+        <v>427.6998149662337</v>
       </c>
       <c r="F12" t="n">
-        <v>88.24406879895466</v>
+        <v>281.1652569931187</v>
       </c>
       <c r="G12" t="n">
-        <v>32.45932575975218</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H12" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I12" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J12" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K12" t="n">
-        <v>208.2166101768439</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L12" t="n">
-        <v>505.948365158507</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M12" t="n">
-        <v>905.36650176277</v>
+        <v>758.3581127497703</v>
       </c>
       <c r="N12" t="n">
-        <v>1271.486777082839</v>
+        <v>1160.042269026704</v>
       </c>
       <c r="O12" t="n">
-        <v>1271.486777082839</v>
+        <v>1483.055776201262</v>
       </c>
       <c r="P12" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q12" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R12" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S12" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T12" t="n">
-        <v>1173.163483952</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U12" t="n">
-        <v>1173.163483952</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V12" t="n">
-        <v>1173.163483952</v>
+        <v>791.2062683570041</v>
       </c>
       <c r="W12" t="n">
-        <v>918.9261272237984</v>
+        <v>791.2062683570041</v>
       </c>
       <c r="X12" t="n">
-        <v>918.9261272237984</v>
+        <v>586.9372699716891</v>
       </c>
       <c r="Y12" t="n">
-        <v>711.1658284588445</v>
+        <v>586.9372699716891</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="C13" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="D13" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="E13" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="F13" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="G13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K13" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L13" t="n">
         <v>107.0302722280248</v>
@@ -5238,13 +5238,13 @@
         <v>72.05002336285366</v>
       </c>
       <c r="W13" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="X13" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="Y13" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285366</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>72.41461071113446</v>
+        <v>444.681910718411</v>
       </c>
       <c r="C14" t="n">
-        <v>32.45932575975218</v>
+        <v>444.681910718411</v>
       </c>
       <c r="D14" t="n">
-        <v>32.45932575975218</v>
+        <v>444.681910718411</v>
       </c>
       <c r="E14" t="n">
-        <v>32.45932575975218</v>
+        <v>58.89365812016678</v>
       </c>
       <c r="F14" t="n">
         <v>32.45932575975218</v>
@@ -5302,28 +5302,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R14" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S14" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T14" t="n">
-        <v>1400.222368368377</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U14" t="n">
-        <v>1146.385485300631</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="V14" t="n">
-        <v>815.3225979570603</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="W14" t="n">
-        <v>462.5539426869462</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="X14" t="n">
-        <v>462.5539426869462</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="Y14" t="n">
-        <v>72.41461071113446</v>
+        <v>444.681910718411</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>977.6484883639168</v>
+        <v>440.4027119985741</v>
       </c>
       <c r="C15" t="n">
-        <v>803.1954590827899</v>
+        <v>440.4027119985741</v>
       </c>
       <c r="D15" t="n">
-        <v>654.2610494215386</v>
+        <v>440.4027119985741</v>
       </c>
       <c r="E15" t="n">
-        <v>495.0235944160831</v>
+        <v>281.1652569931186</v>
       </c>
       <c r="F15" t="n">
-        <v>348.4890364429681</v>
+        <v>281.1652569931186</v>
       </c>
       <c r="G15" t="n">
-        <v>210.0766632021383</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H15" t="n">
-        <v>99.78310520960159</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I15" t="n">
         <v>32.45932575975218</v>
@@ -5360,49 +5360,49 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K15" t="n">
-        <v>208.2166101768439</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L15" t="n">
-        <v>505.948365158507</v>
+        <v>147.3709770270844</v>
       </c>
       <c r="M15" t="n">
-        <v>905.36650176277</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N15" t="n">
-        <v>1057.709031609043</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O15" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P15" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q15" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R15" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S15" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T15" t="n">
-        <v>1374.066492846507</v>
+        <v>1326.210181441108</v>
       </c>
       <c r="U15" t="n">
-        <v>1145.863825383985</v>
+        <v>1098.007513978587</v>
       </c>
       <c r="V15" t="n">
-        <v>1145.863825383985</v>
+        <v>862.8554057468439</v>
       </c>
       <c r="W15" t="n">
-        <v>1145.863825383985</v>
+        <v>608.6180490186422</v>
       </c>
       <c r="X15" t="n">
-        <v>1145.863825383985</v>
+        <v>608.6180490186422</v>
       </c>
       <c r="Y15" t="n">
-        <v>1145.863825383985</v>
+        <v>608.6180490186422</v>
       </c>
     </row>
     <row r="16">
@@ -5466,19 +5466,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T16" t="n">
-        <v>361.2466016029501</v>
+        <v>321.6559039998486</v>
       </c>
       <c r="U16" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V16" t="n">
-        <v>106.5621133970633</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W16" t="n">
-        <v>106.5621133970633</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X16" t="n">
-        <v>106.5621133970633</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y16" t="n">
         <v>32.45932575975218</v>
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1171.560805086887</v>
+        <v>571.3022195327464</v>
       </c>
       <c r="C17" t="n">
-        <v>802.5982881464754</v>
+        <v>571.3022195327464</v>
       </c>
       <c r="D17" t="n">
-        <v>802.5982881464754</v>
+        <v>213.0365209259959</v>
       </c>
       <c r="E17" t="n">
-        <v>442.299297473795</v>
+        <v>213.0365209259959</v>
       </c>
       <c r="F17" t="n">
-        <v>32.45932575975219</v>
+        <v>213.0365209259959</v>
       </c>
       <c r="G17" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H17" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I17" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J17" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521485</v>
       </c>
       <c r="K17" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L17" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M17" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N17" t="n">
         <v>1148.836227140252</v>
@@ -5539,28 +5539,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R17" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S17" t="n">
-        <v>1425.397688154633</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T17" t="n">
-        <v>1425.397688154633</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="U17" t="n">
-        <v>1171.560805086887</v>
+        <v>1255.133762146431</v>
       </c>
       <c r="V17" t="n">
-        <v>1171.560805086887</v>
+        <v>924.0708748028607</v>
       </c>
       <c r="W17" t="n">
-        <v>1171.560805086887</v>
+        <v>571.3022195327464</v>
       </c>
       <c r="X17" t="n">
-        <v>1171.560805086887</v>
+        <v>571.3022195327464</v>
       </c>
       <c r="Y17" t="n">
-        <v>1171.560805086887</v>
+        <v>571.3022195327464</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>250.2070755734487</v>
+        <v>275.1116607907897</v>
       </c>
       <c r="C18" t="n">
-        <v>250.2070755734487</v>
+        <v>275.1116607907897</v>
       </c>
       <c r="D18" t="n">
-        <v>250.2070755734487</v>
+        <v>275.1116607907897</v>
       </c>
       <c r="E18" t="n">
-        <v>250.2070755734487</v>
+        <v>275.1116607907897</v>
       </c>
       <c r="F18" t="n">
-        <v>250.2070755734487</v>
+        <v>128.5771028176747</v>
       </c>
       <c r="G18" t="n">
-        <v>111.7947023326189</v>
+        <v>128.5771028176747</v>
       </c>
       <c r="H18" t="n">
         <v>111.7947023326189</v>
       </c>
       <c r="I18" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J18" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K18" t="n">
-        <v>236.9655055809357</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L18" t="n">
-        <v>534.6972605625989</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M18" t="n">
-        <v>934.1153971668618</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N18" t="n">
-        <v>948.4732699082811</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O18" t="n">
-        <v>1271.486777082839</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P18" t="n">
-        <v>1513.730526286847</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q18" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R18" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S18" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T18" t="n">
-        <v>1551.626343986469</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U18" t="n">
-        <v>1323.423676523948</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V18" t="n">
-        <v>1088.271568292205</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="W18" t="n">
-        <v>834.0342115640035</v>
+        <v>690.7234597612764</v>
       </c>
       <c r="X18" t="n">
-        <v>626.1827113584707</v>
+        <v>482.8719595557436</v>
       </c>
       <c r="Y18" t="n">
-        <v>418.4224125935167</v>
+        <v>275.1116607907897</v>
       </c>
     </row>
     <row r="19">
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K19" t="n">
         <v>40.81344334191284</v>
@@ -5700,10 +5700,10 @@
         <v>361.24660160295</v>
       </c>
       <c r="S19" t="n">
-        <v>361.24660160295</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="T19" t="n">
-        <v>361.24660160295</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="U19" t="n">
         <v>321.8764957967128</v>
@@ -5712,13 +5712,13 @@
         <v>321.8764957967128</v>
       </c>
       <c r="W19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>451.6733443394125</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="C20" t="n">
-        <v>82.71082739900078</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="D20" t="n">
-        <v>82.71082739900078</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="E20" t="n">
-        <v>82.71082739900078</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="F20" t="n">
-        <v>82.71082739900078</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G20" t="n">
-        <v>82.71082739900078</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H20" t="n">
-        <v>82.71082739900078</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I20" t="n">
         <v>32.45932575975218</v>
@@ -5761,7 +5761,7 @@
         <v>519.4894913528326</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
@@ -5779,25 +5779,25 @@
         <v>1508.970645214177</v>
       </c>
       <c r="S20" t="n">
-        <v>1508.970645214177</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T20" t="n">
-        <v>1508.970645214177</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U20" t="n">
-        <v>1508.970645214177</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="V20" t="n">
-        <v>1177.907757870606</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="W20" t="n">
-        <v>825.1391026004924</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="X20" t="n">
-        <v>451.6733443394125</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="Y20" t="n">
-        <v>451.6733443394125</v>
+        <v>150.9897000805379</v>
       </c>
     </row>
     <row r="21">
@@ -5807,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>206.9123550408792</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="C21" t="n">
-        <v>32.45932575975218</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="D21" t="n">
-        <v>32.45932575975218</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E21" t="n">
         <v>32.45932575975218</v>
@@ -5837,16 +5837,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="L21" t="n">
-        <v>330.1910807414154</v>
+        <v>256.6067387278473</v>
       </c>
       <c r="M21" t="n">
-        <v>729.6092173456783</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N21" t="n">
-        <v>1131.293373622612</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O21" t="n">
-        <v>1454.30688079717</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P21" t="n">
         <v>1622.966287987609</v>
@@ -5864,19 +5864,19 @@
         <v>1254.561044051268</v>
       </c>
       <c r="U21" t="n">
-        <v>1254.561044051268</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V21" t="n">
-        <v>1019.408935819526</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="W21" t="n">
-        <v>765.171579091324</v>
+        <v>772.1210198605449</v>
       </c>
       <c r="X21" t="n">
-        <v>582.8879908259012</v>
+        <v>567.6724165502296</v>
       </c>
       <c r="Y21" t="n">
-        <v>375.1276920609472</v>
+        <v>359.9121177852757</v>
       </c>
     </row>
     <row r="22">
@@ -5919,34 +5919,34 @@
         <v>107.0302722280248</v>
       </c>
       <c r="M22" t="n">
-        <v>187.235757098444</v>
+        <v>187.2357570984439</v>
       </c>
       <c r="N22" t="n">
         <v>270.9687512285709</v>
       </c>
       <c r="O22" t="n">
-        <v>332.2934283710737</v>
+        <v>332.2934283710736</v>
       </c>
       <c r="P22" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="Q22" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="R22" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="S22" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="T22" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="U22" t="n">
-        <v>72.05002336285361</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V22" t="n">
-        <v>72.05002336285361</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W22" t="n">
         <v>32.45932575975218</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1169.527513020957</v>
+        <v>779.107697186644</v>
       </c>
       <c r="C23" t="n">
-        <v>800.5649960805454</v>
+        <v>779.107697186644</v>
       </c>
       <c r="D23" t="n">
-        <v>442.2992974737949</v>
+        <v>779.107697186644</v>
       </c>
       <c r="E23" t="n">
-        <v>442.2992974737949</v>
+        <v>779.107697186644</v>
       </c>
       <c r="F23" t="n">
-        <v>442.2992974737949</v>
+        <v>779.107697186644</v>
       </c>
       <c r="G23" t="n">
-        <v>32.45932575975218</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H23" t="n">
         <v>32.45932575975218</v>
@@ -6013,28 +6013,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R23" t="n">
-        <v>1622.966287987609</v>
+        <v>1539.173295511846</v>
       </c>
       <c r="S23" t="n">
-        <v>1622.966287987609</v>
+        <v>1539.173295511846</v>
       </c>
       <c r="T23" t="n">
-        <v>1622.966287987609</v>
+        <v>1539.173295511846</v>
       </c>
       <c r="U23" t="n">
-        <v>1500.590400364528</v>
+        <v>1539.173295511846</v>
       </c>
       <c r="V23" t="n">
-        <v>1169.527513020957</v>
+        <v>1539.173295511846</v>
       </c>
       <c r="W23" t="n">
-        <v>1169.527513020957</v>
+        <v>1539.173295511846</v>
       </c>
       <c r="X23" t="n">
-        <v>1169.527513020957</v>
+        <v>1165.707537250766</v>
       </c>
       <c r="Y23" t="n">
-        <v>1169.527513020957</v>
+        <v>1165.707537250766</v>
       </c>
     </row>
     <row r="24">
@@ -6044,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>340.6311904264589</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C24" t="n">
-        <v>340.6311904264589</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D24" t="n">
-        <v>191.6967807652077</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E24" t="n">
         <v>32.45932575975218</v>
@@ -6074,10 +6074,10 @@
         <v>32.45932575975218</v>
       </c>
       <c r="L24" t="n">
-        <v>330.1910807414154</v>
+        <v>256.6067387278473</v>
       </c>
       <c r="M24" t="n">
-        <v>729.6092173456783</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N24" t="n">
         <v>1057.709031609043</v>
@@ -6098,22 +6098,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T24" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.3316234539</v>
       </c>
       <c r="U24" t="n">
-        <v>1413.847791376958</v>
+        <v>1280.128955991378</v>
       </c>
       <c r="V24" t="n">
-        <v>1178.695683145215</v>
+        <v>1044.976847759636</v>
       </c>
       <c r="W24" t="n">
-        <v>924.4583264170137</v>
+        <v>790.739491031434</v>
       </c>
       <c r="X24" t="n">
-        <v>716.6068262114809</v>
+        <v>582.8879908259012</v>
       </c>
       <c r="Y24" t="n">
-        <v>508.846527446527</v>
+        <v>375.1276920609472</v>
       </c>
     </row>
     <row r="25">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1378.603698709343</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C26" t="n">
-        <v>1378.603698709343</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D26" t="n">
-        <v>1378.603698709343</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E26" t="n">
-        <v>1378.603698709343</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F26" t="n">
-        <v>968.7637269953004</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G26" t="n">
-        <v>558.9237552812577</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H26" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I26" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J26" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K26" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L26" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M26" t="n">
         <v>838.8947028941456</v>
@@ -6250,28 +6250,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R26" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S26" t="n">
-        <v>1508.970645214177</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T26" t="n">
-        <v>1508.970645214177</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="U26" t="n">
-        <v>1378.603698709343</v>
+        <v>1106.430200349249</v>
       </c>
       <c r="V26" t="n">
-        <v>1378.603698709343</v>
+        <v>775.3673130056781</v>
       </c>
       <c r="W26" t="n">
-        <v>1378.603698709343</v>
+        <v>422.5986577355639</v>
       </c>
       <c r="X26" t="n">
-        <v>1378.603698709343</v>
+        <v>422.5986577355639</v>
       </c>
       <c r="Y26" t="n">
-        <v>1378.603698709343</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>576.634224627485</v>
+        <v>121.3571126583155</v>
       </c>
       <c r="C27" t="n">
-        <v>576.634224627485</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D27" t="n">
-        <v>427.6998149662337</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E27" t="n">
-        <v>427.6998149662337</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F27" t="n">
-        <v>281.1652569931186</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G27" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H27" t="n">
         <v>32.45932575975218</v>
@@ -6305,25 +6305,25 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J27" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K27" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L27" t="n">
-        <v>358.9399761455072</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M27" t="n">
-        <v>758.3581127497702</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N27" t="n">
-        <v>1160.042269026703</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O27" t="n">
-        <v>1483.055776201262</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P27" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q27" t="n">
         <v>1622.966287987609</v>
@@ -6332,25 +6332,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S27" t="n">
-        <v>1495.129365944458</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T27" t="n">
-        <v>1294.226357049951</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U27" t="n">
-        <v>1066.023689587429</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V27" t="n">
-        <v>830.8715813556867</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="W27" t="n">
-        <v>576.634224627485</v>
+        <v>536.9689116288023</v>
       </c>
       <c r="X27" t="n">
-        <v>576.634224627485</v>
+        <v>329.1174114232695</v>
       </c>
       <c r="Y27" t="n">
-        <v>576.634224627485</v>
+        <v>121.3571126583155</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="C28" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="D28" t="n">
-        <v>327.2623668400556</v>
+        <v>211.1299621906143</v>
       </c>
       <c r="E28" t="n">
-        <v>179.3492732576625</v>
+        <v>63.21686860822118</v>
       </c>
       <c r="F28" t="n">
-        <v>32.45932575975218</v>
+        <v>63.21686860822118</v>
       </c>
       <c r="G28" t="n">
-        <v>32.45932575975218</v>
+        <v>63.21686860822118</v>
       </c>
       <c r="H28" t="n">
-        <v>32.45932575975218</v>
+        <v>63.21686860822118</v>
       </c>
       <c r="I28" t="n">
         <v>32.45932575975218</v>
@@ -6393,43 +6393,43 @@
         <v>107.0302722280248</v>
       </c>
       <c r="M28" t="n">
-        <v>187.235757098444</v>
+        <v>187.2357570984439</v>
       </c>
       <c r="N28" t="n">
         <v>270.9687512285709</v>
       </c>
       <c r="O28" t="n">
-        <v>332.2934283710737</v>
+        <v>332.2934283710736</v>
       </c>
       <c r="P28" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="Q28" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="R28" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="S28" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="T28" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="U28" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="V28" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="W28" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="X28" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="Y28" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>732.2314731742438</v>
+        <v>1232.826956011797</v>
       </c>
       <c r="C29" t="n">
-        <v>732.2314731742438</v>
+        <v>1232.826956011797</v>
       </c>
       <c r="D29" t="n">
-        <v>732.2314731742438</v>
+        <v>1232.826956011797</v>
       </c>
       <c r="E29" t="n">
-        <v>732.2314731742438</v>
+        <v>847.0387034135531</v>
       </c>
       <c r="F29" t="n">
-        <v>322.391501460201</v>
+        <v>437.1987316995103</v>
       </c>
       <c r="G29" t="n">
         <v>32.45932575975218</v>
@@ -6487,28 +6487,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R29" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S29" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T29" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U29" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V29" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W29" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X29" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y29" t="n">
-        <v>1118.831313238366</v>
+        <v>1232.826956011797</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>597.4593063921106</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C30" t="n">
-        <v>597.4593063921106</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D30" t="n">
-        <v>448.5248967308594</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E30" t="n">
-        <v>289.2874417254039</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F30" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G30" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H30" t="n">
         <v>32.45932575975218</v>
@@ -6545,22 +6545,22 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K30" t="n">
-        <v>91.88297124942886</v>
+        <v>201.1187329501917</v>
       </c>
       <c r="L30" t="n">
-        <v>389.614726231092</v>
+        <v>498.8504879318549</v>
       </c>
       <c r="M30" t="n">
-        <v>789.032862835355</v>
+        <v>898.2686245361178</v>
       </c>
       <c r="N30" t="n">
-        <v>1190.717019112288</v>
+        <v>1299.952780813051</v>
       </c>
       <c r="O30" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="P30" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q30" t="n">
         <v>1622.966287987609</v>
@@ -6569,25 +6569,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S30" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T30" t="n">
-        <v>1622.966287987609</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U30" t="n">
-        <v>1435.523799110867</v>
+        <v>1111.91361897131</v>
       </c>
       <c r="V30" t="n">
-        <v>1435.523799110867</v>
+        <v>876.7615107395675</v>
       </c>
       <c r="W30" t="n">
-        <v>1181.286442382665</v>
+        <v>622.5241540113659</v>
       </c>
       <c r="X30" t="n">
-        <v>973.4349421771326</v>
+        <v>414.6726538058331</v>
       </c>
       <c r="Y30" t="n">
-        <v>765.6746434121787</v>
+        <v>206.9123550408792</v>
       </c>
     </row>
     <row r="31">
@@ -6630,34 +6630,34 @@
         <v>107.0302722280248</v>
       </c>
       <c r="M31" t="n">
-        <v>187.235757098444</v>
+        <v>187.2357570984439</v>
       </c>
       <c r="N31" t="n">
         <v>270.9687512285709</v>
       </c>
       <c r="O31" t="n">
-        <v>332.2934283710737</v>
+        <v>332.2934283710736</v>
       </c>
       <c r="P31" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="Q31" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="R31" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="S31" t="n">
-        <v>139.6199360758254</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="T31" t="n">
-        <v>32.45932575975218</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="U31" t="n">
-        <v>32.45932575975218</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V31" t="n">
-        <v>32.45932575975218</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W31" t="n">
         <v>32.45932575975218</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1221.101786128249</v>
+        <v>370.9953983542762</v>
       </c>
       <c r="C32" t="n">
-        <v>852.1392691878377</v>
+        <v>370.9953983542762</v>
       </c>
       <c r="D32" t="n">
-        <v>852.1392691878377</v>
+        <v>370.9953983542762</v>
       </c>
       <c r="E32" t="n">
-        <v>852.1392691878377</v>
+        <v>370.9953983542762</v>
       </c>
       <c r="F32" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G32" t="n">
         <v>32.45932575975218</v>
@@ -6724,28 +6724,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R32" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S32" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T32" t="n">
-        <v>1622.966287987609</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U32" t="n">
-        <v>1622.966287987609</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="V32" t="n">
-        <v>1622.966287987609</v>
+        <v>757.595238418398</v>
       </c>
       <c r="W32" t="n">
-        <v>1622.966287987609</v>
+        <v>757.595238418398</v>
       </c>
       <c r="X32" t="n">
-        <v>1622.966287987609</v>
+        <v>757.595238418398</v>
       </c>
       <c r="Y32" t="n">
-        <v>1607.701626192371</v>
+        <v>757.595238418398</v>
       </c>
     </row>
     <row r="33">
@@ -6785,16 +6785,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="L33" t="n">
-        <v>330.1910807414154</v>
+        <v>256.6067387278473</v>
       </c>
       <c r="M33" t="n">
-        <v>729.6092173456783</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N33" t="n">
-        <v>1131.293373622612</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O33" t="n">
-        <v>1454.30688079717</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P33" t="n">
         <v>1622.966287987609</v>
@@ -6806,25 +6806,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S33" t="n">
-        <v>1541.019295328339</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T33" t="n">
-        <v>1340.116286433832</v>
+        <v>1422.063279093102</v>
       </c>
       <c r="U33" t="n">
-        <v>1111.91361897131</v>
+        <v>1280.128955991378</v>
       </c>
       <c r="V33" t="n">
-        <v>876.7615107395675</v>
+        <v>1044.976847759636</v>
       </c>
       <c r="W33" t="n">
-        <v>622.5241540113659</v>
+        <v>790.739491031434</v>
       </c>
       <c r="X33" t="n">
-        <v>414.6726538058331</v>
+        <v>582.8879908259012</v>
       </c>
       <c r="Y33" t="n">
-        <v>206.9123550408792</v>
+        <v>375.1276920609472</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>193.9514651575251</v>
+        <v>132.1392625228376</v>
       </c>
       <c r="C34" t="n">
-        <v>193.9514651575251</v>
+        <v>132.1392625228376</v>
       </c>
       <c r="D34" t="n">
-        <v>193.9514651575251</v>
+        <v>132.1392625228376</v>
       </c>
       <c r="E34" t="n">
-        <v>193.9514651575251</v>
+        <v>132.1392625228376</v>
       </c>
       <c r="F34" t="n">
-        <v>193.9514651575251</v>
+        <v>132.1392625228376</v>
       </c>
       <c r="G34" t="n">
-        <v>193.9514651575251</v>
+        <v>132.1392625228376</v>
       </c>
       <c r="H34" t="n">
-        <v>32.45932575975218</v>
+        <v>132.1392625228376</v>
       </c>
       <c r="I34" t="n">
         <v>32.45932575975218</v>
@@ -6867,43 +6867,43 @@
         <v>107.0302722280248</v>
       </c>
       <c r="M34" t="n">
-        <v>187.235757098444</v>
+        <v>187.2357570984439</v>
       </c>
       <c r="N34" t="n">
         <v>270.9687512285709</v>
       </c>
       <c r="O34" t="n">
-        <v>332.2934283710737</v>
+        <v>332.2934283710736</v>
       </c>
       <c r="P34" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="Q34" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="R34" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="S34" t="n">
-        <v>193.9514651575251</v>
+        <v>361.24660160295</v>
       </c>
       <c r="T34" t="n">
-        <v>193.9514651575251</v>
+        <v>132.1392625228376</v>
       </c>
       <c r="U34" t="n">
-        <v>193.9514651575251</v>
+        <v>132.1392625228376</v>
       </c>
       <c r="V34" t="n">
-        <v>193.9514651575251</v>
+        <v>132.1392625228376</v>
       </c>
       <c r="W34" t="n">
-        <v>193.9514651575251</v>
+        <v>132.1392625228376</v>
       </c>
       <c r="X34" t="n">
-        <v>193.9514651575251</v>
+        <v>132.1392625228376</v>
       </c>
       <c r="Y34" t="n">
-        <v>193.9514651575251</v>
+        <v>132.1392625228376</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>852.1392691878377</v>
+        <v>661.7925979177412</v>
       </c>
       <c r="C35" t="n">
-        <v>852.1392691878377</v>
+        <v>292.8300809773295</v>
       </c>
       <c r="D35" t="n">
-        <v>852.1392691878377</v>
+        <v>292.8300809773295</v>
       </c>
       <c r="E35" t="n">
-        <v>852.1392691878377</v>
+        <v>292.8300809773295</v>
       </c>
       <c r="F35" t="n">
-        <v>442.2992974737949</v>
+        <v>292.8300809773295</v>
       </c>
       <c r="G35" t="n">
         <v>32.45932575975218</v>
@@ -6946,7 +6946,7 @@
         <v>519.4894913528324</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
@@ -6964,25 +6964,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S35" t="n">
-        <v>1465.022520782882</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T35" t="n">
-        <v>1242.278601163649</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="U35" t="n">
-        <v>1242.278601163649</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="V35" t="n">
-        <v>1242.278601163649</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="W35" t="n">
-        <v>1242.278601163649</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="X35" t="n">
-        <v>1242.278601163649</v>
+        <v>1051.931929893553</v>
       </c>
       <c r="Y35" t="n">
-        <v>852.1392691878377</v>
+        <v>661.7925979177412</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>910.3247089140674</v>
+        <v>502.3813226752454</v>
       </c>
       <c r="C36" t="n">
-        <v>735.8716796329404</v>
+        <v>327.9282933941184</v>
       </c>
       <c r="D36" t="n">
-        <v>586.9372699716891</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="E36" t="n">
-        <v>427.6998149662337</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="F36" t="n">
-        <v>281.1652569931186</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G36" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H36" t="n">
         <v>32.45932575975218</v>
@@ -7016,7 +7016,7 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J36" t="n">
-        <v>61.20822116384403</v>
+        <v>61.20822116384402</v>
       </c>
       <c r="K36" t="n">
         <v>236.9655055809357</v>
@@ -7025,7 +7025,7 @@
         <v>534.6972605625989</v>
       </c>
       <c r="M36" t="n">
-        <v>934.1153971668618</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N36" t="n">
         <v>948.4732699082806</v>
@@ -7040,28 +7040,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R36" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S36" t="n">
-        <v>1455.464052945775</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T36" t="n">
-        <v>1254.561044051268</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U36" t="n">
-        <v>1078.540045934135</v>
+        <v>1172.230478373934</v>
       </c>
       <c r="V36" t="n">
-        <v>1078.540045934135</v>
+        <v>1172.230478373934</v>
       </c>
       <c r="W36" t="n">
-        <v>1078.540045934135</v>
+        <v>917.9931216457321</v>
       </c>
       <c r="X36" t="n">
-        <v>1078.540045934135</v>
+        <v>710.1416214401993</v>
       </c>
       <c r="Y36" t="n">
-        <v>1078.540045934135</v>
+        <v>502.3813226752454</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>32.45932575975218</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="C37" t="n">
-        <v>32.45932575975218</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="D37" t="n">
-        <v>32.45932575975218</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="E37" t="n">
-        <v>32.45932575975218</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="F37" t="n">
-        <v>32.45932575975218</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="G37" t="n">
-        <v>32.45932575975218</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="H37" t="n">
         <v>32.45932575975218</v>
@@ -7104,43 +7104,43 @@
         <v>107.0302722280248</v>
       </c>
       <c r="M37" t="n">
-        <v>187.235757098444</v>
+        <v>187.2357570984439</v>
       </c>
       <c r="N37" t="n">
         <v>270.9687512285709</v>
       </c>
       <c r="O37" t="n">
-        <v>332.2934283710737</v>
+        <v>332.2934283710736</v>
       </c>
       <c r="P37" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="Q37" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="R37" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="S37" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="T37" t="n">
-        <v>132.1392625228377</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="U37" t="n">
-        <v>32.45932575975218</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="V37" t="n">
-        <v>32.45932575975218</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="W37" t="n">
-        <v>32.45932575975218</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="X37" t="n">
-        <v>32.45932575975218</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="Y37" t="n">
-        <v>32.45932575975218</v>
+        <v>193.9514651575251</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1010.083036392565</v>
+        <v>776.5132769647469</v>
       </c>
       <c r="C38" t="n">
-        <v>1010.083036392565</v>
+        <v>776.5132769647469</v>
       </c>
       <c r="D38" t="n">
-        <v>1010.083036392565</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E38" t="n">
-        <v>1010.083036392565</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F38" t="n">
-        <v>600.2430646785224</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G38" t="n">
-        <v>190.4030929644796</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H38" t="n">
         <v>32.45932575975218</v>
@@ -7174,16 +7174,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J38" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521485</v>
       </c>
       <c r="K38" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011316</v>
       </c>
       <c r="L38" t="n">
         <v>519.4894913528324</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
@@ -7204,22 +7204,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T38" t="n">
-        <v>1400.222368368377</v>
+        <v>1519.421264210673</v>
       </c>
       <c r="U38" t="n">
-        <v>1400.222368368377</v>
+        <v>1519.421264210673</v>
       </c>
       <c r="V38" t="n">
-        <v>1400.222368368377</v>
+        <v>1519.421264210673</v>
       </c>
       <c r="W38" t="n">
-        <v>1400.222368368377</v>
+        <v>1166.652608940559</v>
       </c>
       <c r="X38" t="n">
-        <v>1400.222368368377</v>
+        <v>1166.652608940559</v>
       </c>
       <c r="Y38" t="n">
-        <v>1010.083036392565</v>
+        <v>776.5132769647469</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>121.3571126583155</v>
+        <v>661.618777680701</v>
       </c>
       <c r="C39" t="n">
-        <v>32.45932575975218</v>
+        <v>487.165748399574</v>
       </c>
       <c r="D39" t="n">
-        <v>32.45932575975218</v>
+        <v>338.2313387383227</v>
       </c>
       <c r="E39" t="n">
-        <v>32.45932575975218</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="F39" t="n">
         <v>32.45932575975218</v>
@@ -7256,49 +7256,49 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K39" t="n">
-        <v>208.2166101768439</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L39" t="n">
-        <v>208.2166101768439</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M39" t="n">
-        <v>607.6347467811067</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N39" t="n">
-        <v>1009.31890305804</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O39" t="n">
-        <v>1271.486777082839</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P39" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q39" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R39" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S39" t="n">
-        <v>1455.464052945775</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T39" t="n">
-        <v>1254.561044051268</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U39" t="n">
-        <v>1026.358376588747</v>
+        <v>1037.685614906302</v>
       </c>
       <c r="V39" t="n">
-        <v>791.2062683570039</v>
+        <v>1037.685614906302</v>
       </c>
       <c r="W39" t="n">
-        <v>536.9689116288023</v>
+        <v>1037.685614906302</v>
       </c>
       <c r="X39" t="n">
-        <v>329.1174114232695</v>
+        <v>829.8341147007691</v>
       </c>
       <c r="Y39" t="n">
-        <v>121.3571126583155</v>
+        <v>829.8341147007691</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C40" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D40" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E40" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F40" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G40" t="n">
         <v>32.45932575975218</v>
@@ -7341,43 +7341,43 @@
         <v>107.0302722280248</v>
       </c>
       <c r="M40" t="n">
-        <v>187.235757098444</v>
+        <v>187.2357570984439</v>
       </c>
       <c r="N40" t="n">
         <v>270.9687512285709</v>
       </c>
       <c r="O40" t="n">
-        <v>332.2934283710737</v>
+        <v>332.2934283710736</v>
       </c>
       <c r="P40" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="Q40" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="R40" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="S40" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="T40" t="n">
-        <v>361.2466016029501</v>
+        <v>321.6559039998486</v>
       </c>
       <c r="U40" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V40" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W40" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X40" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y40" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>852.1392691878377</v>
+        <v>701.3269551836285</v>
       </c>
       <c r="C41" t="n">
-        <v>852.1392691878377</v>
+        <v>701.3269551836285</v>
       </c>
       <c r="D41" t="n">
-        <v>852.1392691878377</v>
+        <v>701.3269551836285</v>
       </c>
       <c r="E41" t="n">
-        <v>852.1392691878377</v>
+        <v>701.3269551836285</v>
       </c>
       <c r="F41" t="n">
-        <v>442.2992974737949</v>
+        <v>291.4869834695857</v>
       </c>
       <c r="G41" t="n">
-        <v>32.45932575975218</v>
+        <v>291.4869834695857</v>
       </c>
       <c r="H41" t="n">
         <v>32.45932575975218</v>
@@ -7435,28 +7435,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R41" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S41" t="n">
-        <v>1425.397688154633</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T41" t="n">
-        <v>1425.397688154633</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="U41" t="n">
-        <v>1425.397688154633</v>
+        <v>1032.389842527199</v>
       </c>
       <c r="V41" t="n">
-        <v>1425.397688154633</v>
+        <v>701.3269551836285</v>
       </c>
       <c r="W41" t="n">
-        <v>1425.397688154633</v>
+        <v>701.3269551836285</v>
       </c>
       <c r="X41" t="n">
-        <v>1425.397688154633</v>
+        <v>701.3269551836285</v>
       </c>
       <c r="Y41" t="n">
-        <v>1035.258356178821</v>
+        <v>701.3269551836285</v>
       </c>
     </row>
     <row r="42">
@@ -7466,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>653.4965929484157</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="C42" t="n">
-        <v>479.0435636672887</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="D42" t="n">
-        <v>330.1091540060374</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="E42" t="n">
         <v>170.8716990005819</v>
@@ -7490,19 +7490,19 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J42" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K42" t="n">
-        <v>208.2166101768439</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L42" t="n">
-        <v>505.948365158507</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M42" t="n">
-        <v>546.7891136313474</v>
+        <v>869.8026208059055</v>
       </c>
       <c r="N42" t="n">
-        <v>948.4732699082806</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="O42" t="n">
         <v>1271.486777082839</v>
@@ -7517,25 +7517,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S42" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T42" t="n">
-        <v>1622.966287987609</v>
+        <v>1264.43946720807</v>
       </c>
       <c r="U42" t="n">
-        <v>1518.952895133961</v>
+        <v>1036.236799745548</v>
       </c>
       <c r="V42" t="n">
-        <v>1283.800786902218</v>
+        <v>801.0846915138054</v>
       </c>
       <c r="W42" t="n">
-        <v>1029.563430174017</v>
+        <v>546.8473347856038</v>
       </c>
       <c r="X42" t="n">
-        <v>821.7119299684837</v>
+        <v>546.8473347856038</v>
       </c>
       <c r="Y42" t="n">
-        <v>821.7119299684837</v>
+        <v>339.08703602065</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C43" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D43" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E43" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F43" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G43" t="n">
-        <v>191.8257232724345</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H43" t="n">
         <v>32.45932575975218</v>
@@ -7596,25 +7596,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S43" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="T43" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="U43" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V43" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W43" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X43" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y43" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>852.1392691878377</v>
+        <v>787.2100952984081</v>
       </c>
       <c r="C44" t="n">
-        <v>852.1392691878377</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="D44" t="n">
-        <v>852.1392691878377</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E44" t="n">
-        <v>852.1392691878377</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F44" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G44" t="n">
         <v>32.45932575975218</v>
@@ -7672,28 +7672,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R44" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S44" t="n">
-        <v>1508.970645214177</v>
+        <v>1547.27569362361</v>
       </c>
       <c r="T44" t="n">
-        <v>1508.970645214177</v>
+        <v>1547.27569362361</v>
       </c>
       <c r="U44" t="n">
-        <v>1508.970645214177</v>
+        <v>1547.27569362361</v>
       </c>
       <c r="V44" t="n">
-        <v>1508.970645214177</v>
+        <v>1547.27569362361</v>
       </c>
       <c r="W44" t="n">
-        <v>1242.278601163649</v>
+        <v>1547.27569362361</v>
       </c>
       <c r="X44" t="n">
-        <v>1242.278601163649</v>
+        <v>1173.80993536253</v>
       </c>
       <c r="Y44" t="n">
-        <v>852.1392691878377</v>
+        <v>1173.80993536253</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>910.3247089140674</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C45" t="n">
-        <v>735.8716796329404</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D45" t="n">
-        <v>586.9372699716891</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E45" t="n">
-        <v>427.6998149662337</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F45" t="n">
-        <v>281.1652569931186</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G45" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H45" t="n">
         <v>32.45932575975218</v>
@@ -7727,22 +7727,22 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J45" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K45" t="n">
-        <v>32.45932575975218</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L45" t="n">
-        <v>330.1910807414154</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M45" t="n">
-        <v>729.6092173456783</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N45" t="n">
-        <v>1131.293373622612</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O45" t="n">
-        <v>1454.30688079717</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P45" t="n">
         <v>1622.966287987609</v>
@@ -7757,22 +7757,22 @@
         <v>1455.464052945775</v>
       </c>
       <c r="T45" t="n">
-        <v>1455.464052945775</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U45" t="n">
-        <v>1313.692154165878</v>
+        <v>1111.91361897131</v>
       </c>
       <c r="V45" t="n">
-        <v>1078.540045934135</v>
+        <v>876.7615107395675</v>
       </c>
       <c r="W45" t="n">
-        <v>1078.540045934135</v>
+        <v>622.5241540113659</v>
       </c>
       <c r="X45" t="n">
-        <v>1078.540045934135</v>
+        <v>414.6726538058331</v>
       </c>
       <c r="Y45" t="n">
-        <v>1078.540045934135</v>
+        <v>206.9123550408792</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>350.3873855140033</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C46" t="n">
-        <v>181.4512025860964</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D46" t="n">
-        <v>181.4512025860964</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E46" t="n">
-        <v>181.4512025860964</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F46" t="n">
-        <v>181.4512025860964</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G46" t="n">
-        <v>181.4512025860964</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H46" t="n">
-        <v>181.4512025860964</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I46" t="n">
         <v>32.45932575975218</v>
@@ -7833,25 +7833,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S46" t="n">
-        <v>350.3873855140033</v>
+        <v>253.2519049032823</v>
       </c>
       <c r="T46" t="n">
-        <v>350.3873855140033</v>
+        <v>253.2519049032823</v>
       </c>
       <c r="U46" t="n">
-        <v>350.3873855140033</v>
+        <v>253.2519049032823</v>
       </c>
       <c r="V46" t="n">
-        <v>350.3873855140033</v>
+        <v>253.2519049032823</v>
       </c>
       <c r="W46" t="n">
-        <v>350.3873855140033</v>
+        <v>253.2519049032823</v>
       </c>
       <c r="X46" t="n">
-        <v>350.3873855140033</v>
+        <v>253.2519049032823</v>
       </c>
       <c r="Y46" t="n">
-        <v>350.3873855140033</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
   </sheetData>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8303,16 +8303,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>185.4193833999402</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8537,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8780,16 +8780,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>419.1643094528387</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O12" t="n">
-        <v>67.58604940343854</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>215.0958621574522</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,16 +9008,16 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>186.173573874842</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>203.2271928126415</v>
+        <v>455.0874215304796</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344739</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026377</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9254,16 +9254,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>63.84875129258673</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444137</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>97.05174705344737</v>
+        <v>97.05174705344739</v>
       </c>
       <c r="K21" t="n">
-        <v>86.93262649026376</v>
+        <v>86.93262649026377</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>296.5127271079359</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9497,7 +9497,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>244.1351504444137</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>99.73813450275543</v>
@@ -9722,13 +9722,13 @@
         <v>86.93262649026377</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>296.5127271079359</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>380.7598033349564</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344739</v>
       </c>
       <c r="K27" t="n">
-        <v>86.93262649026376</v>
+        <v>86.93262649026377</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,16 +9965,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>455.0874215304797</v>
+        <v>380.7598033349564</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>104.7567089243584</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>97.05174705344737</v>
+        <v>97.05174705344739</v>
       </c>
       <c r="K30" t="n">
-        <v>146.9565108232705</v>
+        <v>257.2956640563643</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10211,7 +10211,7 @@
         <v>73.77211287831324</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>97.05174705344737</v>
+        <v>97.05174705344739</v>
       </c>
       <c r="K33" t="n">
-        <v>86.93262649026376</v>
+        <v>86.93262649026377</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>296.5127271079359</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10445,7 +10445,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>244.1351504444137</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>99.73813450275543</v>
@@ -10673,10 +10673,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>74.46639351210652</v>
       </c>
       <c r="N36" t="n">
-        <v>63.84875129258624</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>97.05174705344737</v>
+        <v>97.05174705344739</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026377</v>
       </c>
       <c r="L39" t="n">
-        <v>70.10119885733474</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10916,13 +10916,13 @@
         <v>455.0874215304797</v>
       </c>
       <c r="O39" t="n">
-        <v>332.4020837719221</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444137</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11147,13 +11147,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>103.505681799068</v>
+        <v>400.7426633853975</v>
       </c>
       <c r="N42" t="n">
         <v>455.0874215304797</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>67.58604940343855</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11387,13 +11387,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>455.0874215304797</v>
+        <v>174.18790452568</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>244.1351504444137</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>99.73813450275543</v>
@@ -23269,16 +23269,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>1.134473744809156</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G11" t="n">
-        <v>8.97193213363164</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H11" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
-        <v>107.2538563849466</v>
+        <v>9.311401904601752</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,13 +23314,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23336,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23351,10 +23351,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>81.801353899611</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>78.54202280713804</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23393,19 +23393,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>3.546676802015696</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.7266695472104</v>
+        <v>128.5318789201399</v>
       </c>
       <c r="H13" t="n">
         <v>159.8772180037952</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>247.3282077095205</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,16 +23497,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>325.7171596691391</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>380.706056704901</v>
       </c>
       <c r="G14" t="n">
         <v>414.7135041305339</v>
@@ -23542,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,10 +23554,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23576,16 +23576,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>11.89148115178713</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>198.8939788055617</v>
+        <v>70.93264601594166</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23706,13 +23706,13 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T16" t="n">
-        <v>226.8162656893113</v>
+        <v>187.6214750622408</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>145.2228935911568</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23734,19 +23734,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>25.23436930630817</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>1.1344737448091</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.7135041305339</v>
+        <v>235.9420809159526</v>
       </c>
       <c r="H17" t="n">
         <v>333.4403157157206</v>
@@ -23779,10 +23779,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
         <v>220.5164804230398</v>
@@ -23791,10 +23791,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -23822,13 +23822,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
-        <v>109.1906224126114</v>
+        <v>92.57604593240615</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23858,19 +23858,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.58358449827553</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>128.2674342444332</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S19" t="n">
-        <v>219.4103988718534</v>
+        <v>180.4339941236785</v>
       </c>
       <c r="T19" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U19" t="n">
-        <v>247.3282077095207</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23971,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23980,7 +23980,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>289.5309751641336</v>
       </c>
       <c r="G20" t="n">
         <v>414.7135041305339</v>
@@ -23989,7 +23989,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I20" t="n">
-        <v>138.0104828877138</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24034,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24050,13 +24050,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>80.58358449827551</v>
+        <v>80.58358449827553</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24104,16 +24104,16 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>25.31223282070886</v>
+        <v>3.368867926265324</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>247.3282077095207</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>247.3282077095206</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24223,7 +24223,7 @@
         <v>8.97193213363164</v>
       </c>
       <c r="H23" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>187.7594695105699</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>112.8556863456974</v>
+        <v>29.90062379469168</v>
       </c>
       <c r="S23" t="n">
         <v>195.5929138346465</v>
@@ -24262,16 +24262,16 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
-        <v>130.1463854902179</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24287,13 +24287,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24338,10 +24338,10 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
-        <v>198.8939788055617</v>
+        <v>85.40566091718961</v>
       </c>
       <c r="U24" t="n">
-        <v>18.89332914335196</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24454,16 +24454,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S26" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>122.2352371972827</v>
+        <v>156.0371817327781</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24524,22 +24524,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>84.69968995873801</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I27" t="n">
         <v>78.54202280713804</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.58358449827551</v>
+        <v>80.58358449827553</v>
       </c>
       <c r="S27" t="n">
-        <v>39.26865986869589</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24587,10 +24587,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24606,13 +24606,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>114.9710806029468</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.7266695472104</v>
@@ -24621,7 +24621,7 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I28" t="n">
-        <v>147.5019580580808</v>
+        <v>117.0519906380965</v>
       </c>
       <c r="J28" t="n">
         <v>74.67247646141476</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24688,13 +24688,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>1.134473744809156</v>
       </c>
       <c r="G29" t="n">
-        <v>127.6806501870896</v>
+        <v>14.02149225017337</v>
       </c>
       <c r="H29" t="n">
         <v>333.4403157157206</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S29" t="n">
         <v>195.5929138346465</v>
@@ -24758,25 +24758,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I30" t="n">
         <v>78.54202280713804</v>
@@ -24806,19 +24806,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.58358449827551</v>
+        <v>80.58358449827553</v>
       </c>
       <c r="S30" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>40.35257679992191</v>
+        <v>84.69968995873808</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R31" t="n">
-        <v>165.4090611368575</v>
+        <v>126.4326563886827</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T31" t="n">
-        <v>120.7272614763988</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U31" t="n">
         <v>286.3046124576955</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24928,10 +24928,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>1.134473744809156</v>
+        <v>71.72533387313263</v>
       </c>
       <c r="G32" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H32" t="n">
         <v>333.4403157157206</v>
@@ -24964,19 +24964,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>371.125923478768</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -25043,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>80.58358449827551</v>
+        <v>80.58358449827553</v>
       </c>
       <c r="S33" t="n">
-        <v>84.69968995873791</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>85.40566091718964</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I34" t="n">
-        <v>147.5019580580808</v>
+        <v>48.81882066262618</v>
       </c>
       <c r="J34" t="n">
         <v>74.67247646141476</v>
@@ -25125,10 +25125,10 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S34" t="n">
-        <v>53.78821379088268</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T34" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.3046124576955</v>
@@ -25156,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25165,10 +25165,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>8.97193213363164</v>
+        <v>156.9464564651324</v>
       </c>
       <c r="H35" t="n">
         <v>333.4403157157206</v>
@@ -25204,10 +25204,10 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S35" t="n">
-        <v>39.22858430196635</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U35" t="n">
         <v>251.2985142370684</v>
@@ -25219,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25241,16 +25241,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I36" t="n">
         <v>78.54202280713804</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25289,19 +25289,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>51.65985265193504</v>
+        <v>224.996965265611</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25329,7 +25329,7 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H37" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>147.5019580580808</v>
@@ -25365,10 +25365,10 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>61.19408060834064</v>
       </c>
       <c r="U37" t="n">
-        <v>187.6214750622408</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25396,19 +25396,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H38" t="n">
-        <v>177.0759861830404</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I38" t="n">
         <v>187.7594695105699</v>
@@ -25444,7 +25444,7 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>118.0069068838727</v>
       </c>
       <c r="U38" t="n">
         <v>251.2985142370684</v>
@@ -25453,7 +25453,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25469,19 +25469,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>84.69968995873801</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.0282495084215</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25526,19 +25526,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>91.7975504326555</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>9.474087561072338</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H40" t="n">
         <v>159.8772180037952</v>
@@ -25602,10 +25602,10 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T40" t="n">
-        <v>226.8162656893113</v>
+        <v>187.6214750622409</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>201.4459455424071</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25642,10 +25642,10 @@
         <v>1.134473744809156</v>
       </c>
       <c r="G41" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H41" t="n">
-        <v>333.4403157157206</v>
+        <v>77.0029345829854</v>
       </c>
       <c r="I41" t="n">
         <v>187.7594695105699</v>
@@ -25675,19 +25675,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T41" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25709,13 +25709,13 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25757,13 +25757,13 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>198.8939788055617</v>
+        <v>9.779638925233598</v>
       </c>
       <c r="U42" t="n">
-        <v>122.9473818627847</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25772,10 +25772,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H43" t="n">
-        <v>2.104484466239711</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I43" t="n">
         <v>147.5019580580808</v>
@@ -25836,10 +25836,10 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S43" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>226.8162656893113</v>
+        <v>120.7272614763988</v>
       </c>
       <c r="U43" t="n">
         <v>286.3046124576955</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H44" t="n">
         <v>333.4403157157206</v>
@@ -25912,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S44" t="n">
-        <v>195.5929138346465</v>
+        <v>120.6592254142871</v>
       </c>
       <c r="T44" t="n">
         <v>220.5164804230398</v>
@@ -25927,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>85.21584510739052</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I45" t="n">
         <v>78.54202280713804</v>
@@ -25997,22 +25997,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>85.56646099579868</v>
+        <v>84.69968995873808</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26043,7 +26043,7 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J46" t="n">
         <v>74.67247646141476</v>
@@ -26073,7 +26073,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S46" t="n">
-        <v>208.6597749437961</v>
+        <v>112.4956491391823</v>
       </c>
       <c r="T46" t="n">
         <v>226.8162656893113</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>534066.9045694554</v>
+        <v>534066.9045694553</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>534066.9045694552</v>
+        <v>534066.9045694551</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>534066.9045694553</v>
+        <v>534066.9045694552</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>534066.9045694554</v>
+        <v>534066.9045694551</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>534066.9045694555</v>
+        <v>534066.9045694554</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>534066.9045694553</v>
+        <v>534066.9045694555</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>534066.9045694555</v>
+        <v>534066.9045694553</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>534066.9045694555</v>
+        <v>534066.9045694554</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>534066.9045694557</v>
+        <v>534066.9045694554</v>
       </c>
     </row>
   </sheetData>
@@ -26316,31 +26316,31 @@
         <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
         <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>256354.6764775275</v>
+        <v>256354.6764775277</v>
       </c>
       <c r="F2" t="n">
-        <v>256354.6764775277</v>
+        <v>256354.6764775276</v>
       </c>
       <c r="G2" t="n">
         <v>256354.6764775276</v>
       </c>
       <c r="H2" t="n">
+        <v>256354.6764775276</v>
+      </c>
+      <c r="I2" t="n">
+        <v>256354.6764775275</v>
+      </c>
+      <c r="J2" t="n">
         <v>256354.6764775277</v>
       </c>
-      <c r="I2" t="n">
-        <v>256354.6764775276</v>
-      </c>
-      <c r="J2" t="n">
-        <v>256354.6764775276</v>
-      </c>
       <c r="K2" t="n">
-        <v>256354.6764775276</v>
+        <v>256354.6764775277</v>
       </c>
       <c r="L2" t="n">
         <v>256354.6764775276</v>
@@ -26349,13 +26349,13 @@
         <v>256354.6764775276</v>
       </c>
       <c r="N2" t="n">
-        <v>256354.6764775276</v>
+        <v>256354.6764775277</v>
       </c>
       <c r="O2" t="n">
         <v>256354.6764775276</v>
       </c>
       <c r="P2" t="n">
-        <v>256354.6764775276</v>
+        <v>256354.6764775278</v>
       </c>
     </row>
     <row r="3">
@@ -26478,13 +26478,13 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="F5" t="n">
         <v>27864.35291375756</v>
       </c>
       <c r="G5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="H5" t="n">
         <v>27864.35291375756</v>
@@ -26524,46 +26524,46 @@
         <v>42611.408632905</v>
       </c>
       <c r="C6" t="n">
-        <v>123380.8401644528</v>
+        <v>123380.8401644526</v>
       </c>
       <c r="D6" t="n">
         <v>123380.8401644527</v>
       </c>
       <c r="E6" t="n">
-        <v>8679.154021237722</v>
+        <v>17539.29347527694</v>
       </c>
       <c r="F6" t="n">
-        <v>175619.3241464847</v>
+        <v>184479.4636005236</v>
       </c>
       <c r="G6" t="n">
-        <v>175619.3241464846</v>
+        <v>184479.4636005237</v>
       </c>
       <c r="H6" t="n">
-        <v>175619.3241464846</v>
+        <v>184479.4636005236</v>
       </c>
       <c r="I6" t="n">
-        <v>175619.3241464846</v>
+        <v>184479.4636005236</v>
       </c>
       <c r="J6" t="n">
-        <v>112559.3815473783</v>
+        <v>121419.5210014175</v>
       </c>
       <c r="K6" t="n">
-        <v>175619.3241464845</v>
+        <v>184479.4636005237</v>
       </c>
       <c r="L6" t="n">
-        <v>175619.3241464846</v>
+        <v>184479.4636005237</v>
       </c>
       <c r="M6" t="n">
-        <v>134568.6262840367</v>
+        <v>143428.7657380758</v>
       </c>
       <c r="N6" t="n">
-        <v>175619.3241464846</v>
+        <v>184479.4636005238</v>
       </c>
       <c r="O6" t="n">
-        <v>175619.3241464846</v>
+        <v>184479.4636005237</v>
       </c>
       <c r="P6" t="n">
-        <v>175619.3241464846</v>
+        <v>184479.4636005239</v>
       </c>
     </row>
   </sheetData>
@@ -27387,10 +27387,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>331.7898455187701</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>40.85345576880712</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27463,22 +27463,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,13 +27508,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>89.71732724963313</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27523,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>34.29696759780947</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>59.05078607424915</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27587,7 +27587,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>115.8205630125936</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>349.7082848322977</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>20.13049249612121</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27700,7 +27700,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>143.6111077961801</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27715,7 +27715,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27754,13 +27754,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>119.652489182596</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27791,7 +27791,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>140.1931807347553</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27833,7 +27833,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>143.9416082994493</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27858,22 +27858,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>161.0465736907239</v>
       </c>
       <c r="F8" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>342.8322390905863</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27931,28 +27931,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>3.014829575991968</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>50.35399691719151</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -27997,7 +27997,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>59.79494433408007</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28034,7 +28034,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>71.32518834398849</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -32463,22 +32463,22 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011533</v>
       </c>
       <c r="H20" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046562</v>
       </c>
       <c r="I20" t="n">
-        <v>22.71642005983599</v>
+        <v>22.71642005983598</v>
       </c>
       <c r="J20" t="n">
-        <v>50.01044697629219</v>
+        <v>50.01044697629218</v>
       </c>
       <c r="K20" t="n">
-        <v>74.95269614645902</v>
+        <v>74.952696146459</v>
       </c>
       <c r="L20" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044657</v>
       </c>
       <c r="M20" t="n">
         <v>103.4642265438473</v>
@@ -32487,25 +32487,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O20" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971764</v>
       </c>
       <c r="P20" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737666</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134784</v>
       </c>
       <c r="R20" t="n">
         <v>37.01343159545223</v>
       </c>
       <c r="S20" t="n">
-        <v>13.4271557515988</v>
+        <v>13.42715575159879</v>
       </c>
       <c r="T20" t="n">
         <v>2.57936914109155</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809225</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,7 +32545,7 @@
         <v>0.3152676547891928</v>
       </c>
       <c r="H21" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885099</v>
       </c>
       <c r="I21" t="n">
         <v>10.85461004427703</v>
@@ -32554,22 +32554,22 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K21" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409522</v>
       </c>
       <c r="L21" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253943</v>
       </c>
       <c r="M21" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864764</v>
       </c>
       <c r="N21" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975588</v>
       </c>
       <c r="O21" t="n">
-        <v>75.01019504100589</v>
+        <v>75.01019504100587</v>
       </c>
       <c r="P21" t="n">
-        <v>60.20229453601701</v>
+        <v>60.202294536017</v>
       </c>
       <c r="Q21" t="n">
         <v>40.24363958326609</v>
@@ -32578,7 +32578,7 @@
         <v>19.57424965436761</v>
       </c>
       <c r="S21" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422064</v>
       </c>
       <c r="T21" t="n">
         <v>1.270749889259948</v>
@@ -32621,34 +32621,34 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483453</v>
       </c>
       <c r="H22" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644381</v>
       </c>
       <c r="I22" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177515</v>
       </c>
       <c r="J22" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525801</v>
       </c>
       <c r="K22" t="n">
         <v>30.70799443412594</v>
       </c>
       <c r="L22" t="n">
-        <v>39.29566048323129</v>
+        <v>39.29566048323128</v>
       </c>
       <c r="M22" t="n">
-        <v>41.43176432141109</v>
+        <v>41.43176432141108</v>
       </c>
       <c r="N22" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039455</v>
       </c>
       <c r="O22" t="n">
-        <v>37.35899041172069</v>
+        <v>37.35899041172068</v>
       </c>
       <c r="P22" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225441</v>
       </c>
       <c r="Q22" t="n">
         <v>22.13234246735009</v>
@@ -32657,7 +32657,7 @@
         <v>11.88433024031196</v>
       </c>
       <c r="S22" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118889</v>
       </c>
       <c r="T22" t="n">
         <v>1.129323738970203</v>
@@ -32937,22 +32937,22 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011533</v>
       </c>
       <c r="H26" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046562</v>
       </c>
       <c r="I26" t="n">
-        <v>22.71642005983599</v>
+        <v>22.71642005983598</v>
       </c>
       <c r="J26" t="n">
-        <v>50.01044697629219</v>
+        <v>50.01044697629218</v>
       </c>
       <c r="K26" t="n">
-        <v>74.95269614645902</v>
+        <v>74.952696146459</v>
       </c>
       <c r="L26" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044657</v>
       </c>
       <c r="M26" t="n">
         <v>103.4642265438473</v>
@@ -32961,25 +32961,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O26" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971764</v>
       </c>
       <c r="P26" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737666</v>
       </c>
       <c r="Q26" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134784</v>
       </c>
       <c r="R26" t="n">
         <v>37.01343159545223</v>
       </c>
       <c r="S26" t="n">
-        <v>13.4271557515988</v>
+        <v>13.42715575159879</v>
       </c>
       <c r="T26" t="n">
         <v>2.57936914109155</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809225</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,7 +33019,7 @@
         <v>0.3152676547891928</v>
       </c>
       <c r="H27" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885099</v>
       </c>
       <c r="I27" t="n">
         <v>10.85461004427703</v>
@@ -33028,22 +33028,22 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K27" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409522</v>
       </c>
       <c r="L27" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253943</v>
       </c>
       <c r="M27" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864764</v>
       </c>
       <c r="N27" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975588</v>
       </c>
       <c r="O27" t="n">
-        <v>75.01019504100589</v>
+        <v>75.01019504100587</v>
       </c>
       <c r="P27" t="n">
-        <v>60.20229453601701</v>
+        <v>60.202294536017</v>
       </c>
       <c r="Q27" t="n">
         <v>40.24363958326609</v>
@@ -33052,7 +33052,7 @@
         <v>19.57424965436761</v>
       </c>
       <c r="S27" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422064</v>
       </c>
       <c r="T27" t="n">
         <v>1.270749889259948</v>
@@ -33095,34 +33095,34 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483453</v>
       </c>
       <c r="H28" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644381</v>
       </c>
       <c r="I28" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177515</v>
       </c>
       <c r="J28" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525801</v>
       </c>
       <c r="K28" t="n">
         <v>30.70799443412594</v>
       </c>
       <c r="L28" t="n">
-        <v>39.29566048323129</v>
+        <v>39.29566048323128</v>
       </c>
       <c r="M28" t="n">
-        <v>41.43176432141109</v>
+        <v>41.43176432141108</v>
       </c>
       <c r="N28" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039455</v>
       </c>
       <c r="O28" t="n">
-        <v>37.35899041172069</v>
+        <v>37.35899041172068</v>
       </c>
       <c r="P28" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225441</v>
       </c>
       <c r="Q28" t="n">
         <v>22.13234246735009</v>
@@ -33131,7 +33131,7 @@
         <v>11.88433024031196</v>
       </c>
       <c r="S28" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118889</v>
       </c>
       <c r="T28" t="n">
         <v>1.129323738970203</v>
@@ -33174,22 +33174,22 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011533</v>
       </c>
       <c r="H29" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046562</v>
       </c>
       <c r="I29" t="n">
-        <v>22.71642005983599</v>
+        <v>22.71642005983598</v>
       </c>
       <c r="J29" t="n">
-        <v>50.01044697629219</v>
+        <v>50.01044697629218</v>
       </c>
       <c r="K29" t="n">
-        <v>74.95269614645902</v>
+        <v>74.952696146459</v>
       </c>
       <c r="L29" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044657</v>
       </c>
       <c r="M29" t="n">
         <v>103.4642265438473</v>
@@ -33198,25 +33198,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O29" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971764</v>
       </c>
       <c r="P29" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737666</v>
       </c>
       <c r="Q29" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134784</v>
       </c>
       <c r="R29" t="n">
         <v>37.01343159545223</v>
       </c>
       <c r="S29" t="n">
-        <v>13.4271557515988</v>
+        <v>13.42715575159879</v>
       </c>
       <c r="T29" t="n">
         <v>2.57936914109155</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809225</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,7 +33256,7 @@
         <v>0.3152676547891928</v>
       </c>
       <c r="H30" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885099</v>
       </c>
       <c r="I30" t="n">
         <v>10.85461004427703</v>
@@ -33265,22 +33265,22 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K30" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409522</v>
       </c>
       <c r="L30" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253943</v>
       </c>
       <c r="M30" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864764</v>
       </c>
       <c r="N30" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975588</v>
       </c>
       <c r="O30" t="n">
-        <v>75.01019504100589</v>
+        <v>75.01019504100587</v>
       </c>
       <c r="P30" t="n">
-        <v>60.20229453601701</v>
+        <v>60.202294536017</v>
       </c>
       <c r="Q30" t="n">
         <v>40.24363958326609</v>
@@ -33289,7 +33289,7 @@
         <v>19.57424965436761</v>
       </c>
       <c r="S30" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422064</v>
       </c>
       <c r="T30" t="n">
         <v>1.270749889259948</v>
@@ -33332,34 +33332,34 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483453</v>
       </c>
       <c r="H31" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644381</v>
       </c>
       <c r="I31" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177515</v>
       </c>
       <c r="J31" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525801</v>
       </c>
       <c r="K31" t="n">
         <v>30.70799443412594</v>
       </c>
       <c r="L31" t="n">
-        <v>39.29566048323129</v>
+        <v>39.29566048323128</v>
       </c>
       <c r="M31" t="n">
-        <v>41.43176432141109</v>
+        <v>41.43176432141108</v>
       </c>
       <c r="N31" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039455</v>
       </c>
       <c r="O31" t="n">
-        <v>37.35899041172069</v>
+        <v>37.35899041172068</v>
       </c>
       <c r="P31" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225441</v>
       </c>
       <c r="Q31" t="n">
         <v>22.13234246735009</v>
@@ -33368,7 +33368,7 @@
         <v>11.88433024031196</v>
       </c>
       <c r="S31" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118889</v>
       </c>
       <c r="T31" t="n">
         <v>1.129323738970203</v>
@@ -33411,22 +33411,22 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011533</v>
       </c>
       <c r="H32" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046562</v>
       </c>
       <c r="I32" t="n">
-        <v>22.71642005983599</v>
+        <v>22.71642005983598</v>
       </c>
       <c r="J32" t="n">
-        <v>50.01044697629219</v>
+        <v>50.01044697629218</v>
       </c>
       <c r="K32" t="n">
-        <v>74.95269614645902</v>
+        <v>74.952696146459</v>
       </c>
       <c r="L32" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044657</v>
       </c>
       <c r="M32" t="n">
         <v>103.4642265438473</v>
@@ -33435,25 +33435,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O32" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971764</v>
       </c>
       <c r="P32" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737666</v>
       </c>
       <c r="Q32" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134784</v>
       </c>
       <c r="R32" t="n">
         <v>37.01343159545223</v>
       </c>
       <c r="S32" t="n">
-        <v>13.4271557515988</v>
+        <v>13.42715575159879</v>
       </c>
       <c r="T32" t="n">
         <v>2.57936914109155</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809225</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,7 +33493,7 @@
         <v>0.3152676547891928</v>
       </c>
       <c r="H33" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885099</v>
       </c>
       <c r="I33" t="n">
         <v>10.85461004427703</v>
@@ -33502,22 +33502,22 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K33" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409522</v>
       </c>
       <c r="L33" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253943</v>
       </c>
       <c r="M33" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864764</v>
       </c>
       <c r="N33" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975588</v>
       </c>
       <c r="O33" t="n">
-        <v>75.01019504100589</v>
+        <v>75.01019504100587</v>
       </c>
       <c r="P33" t="n">
-        <v>60.20229453601701</v>
+        <v>60.202294536017</v>
       </c>
       <c r="Q33" t="n">
         <v>40.24363958326609</v>
@@ -33526,7 +33526,7 @@
         <v>19.57424965436761</v>
       </c>
       <c r="S33" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422064</v>
       </c>
       <c r="T33" t="n">
         <v>1.270749889259948</v>
@@ -33569,34 +33569,34 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483453</v>
       </c>
       <c r="H34" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644381</v>
       </c>
       <c r="I34" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177515</v>
       </c>
       <c r="J34" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525801</v>
       </c>
       <c r="K34" t="n">
         <v>30.70799443412594</v>
       </c>
       <c r="L34" t="n">
-        <v>39.29566048323129</v>
+        <v>39.29566048323128</v>
       </c>
       <c r="M34" t="n">
-        <v>41.43176432141109</v>
+        <v>41.43176432141108</v>
       </c>
       <c r="N34" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039455</v>
       </c>
       <c r="O34" t="n">
-        <v>37.35899041172069</v>
+        <v>37.35899041172068</v>
       </c>
       <c r="P34" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225441</v>
       </c>
       <c r="Q34" t="n">
         <v>22.13234246735009</v>
@@ -33605,7 +33605,7 @@
         <v>11.88433024031196</v>
       </c>
       <c r="S34" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118889</v>
       </c>
       <c r="T34" t="n">
         <v>1.129323738970203</v>
@@ -33648,22 +33648,22 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011533</v>
       </c>
       <c r="H35" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046562</v>
       </c>
       <c r="I35" t="n">
-        <v>22.71642005983599</v>
+        <v>22.71642005983598</v>
       </c>
       <c r="J35" t="n">
-        <v>50.01044697629219</v>
+        <v>50.01044697629218</v>
       </c>
       <c r="K35" t="n">
-        <v>74.95269614645902</v>
+        <v>74.952696146459</v>
       </c>
       <c r="L35" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044657</v>
       </c>
       <c r="M35" t="n">
         <v>103.4642265438473</v>
@@ -33672,25 +33672,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O35" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971764</v>
       </c>
       <c r="P35" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737666</v>
       </c>
       <c r="Q35" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134784</v>
       </c>
       <c r="R35" t="n">
         <v>37.01343159545223</v>
       </c>
       <c r="S35" t="n">
-        <v>13.4271557515988</v>
+        <v>13.42715575159879</v>
       </c>
       <c r="T35" t="n">
         <v>2.57936914109155</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809225</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,7 +33730,7 @@
         <v>0.3152676547891928</v>
       </c>
       <c r="H36" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885099</v>
       </c>
       <c r="I36" t="n">
         <v>10.85461004427703</v>
@@ -33739,22 +33739,22 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K36" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409522</v>
       </c>
       <c r="L36" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253943</v>
       </c>
       <c r="M36" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864764</v>
       </c>
       <c r="N36" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975588</v>
       </c>
       <c r="O36" t="n">
-        <v>75.01019504100589</v>
+        <v>75.01019504100587</v>
       </c>
       <c r="P36" t="n">
-        <v>60.20229453601701</v>
+        <v>60.202294536017</v>
       </c>
       <c r="Q36" t="n">
         <v>40.24363958326609</v>
@@ -33763,7 +33763,7 @@
         <v>19.57424965436761</v>
       </c>
       <c r="S36" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422064</v>
       </c>
       <c r="T36" t="n">
         <v>1.270749889259948</v>
@@ -33806,34 +33806,34 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483453</v>
       </c>
       <c r="H37" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644381</v>
       </c>
       <c r="I37" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177515</v>
       </c>
       <c r="J37" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525801</v>
       </c>
       <c r="K37" t="n">
         <v>30.70799443412594</v>
       </c>
       <c r="L37" t="n">
-        <v>39.29566048323129</v>
+        <v>39.29566048323128</v>
       </c>
       <c r="M37" t="n">
-        <v>41.43176432141109</v>
+        <v>41.43176432141108</v>
       </c>
       <c r="N37" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039455</v>
       </c>
       <c r="O37" t="n">
-        <v>37.35899041172069</v>
+        <v>37.35899041172068</v>
       </c>
       <c r="P37" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225441</v>
       </c>
       <c r="Q37" t="n">
         <v>22.13234246735009</v>
@@ -33842,7 +33842,7 @@
         <v>11.88433024031196</v>
       </c>
       <c r="S37" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118889</v>
       </c>
       <c r="T37" t="n">
         <v>1.129323738970203</v>
@@ -33885,22 +33885,22 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011533</v>
       </c>
       <c r="H38" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046562</v>
       </c>
       <c r="I38" t="n">
-        <v>22.71642005983599</v>
+        <v>22.71642005983598</v>
       </c>
       <c r="J38" t="n">
-        <v>50.01044697629219</v>
+        <v>50.01044697629218</v>
       </c>
       <c r="K38" t="n">
-        <v>74.95269614645902</v>
+        <v>74.952696146459</v>
       </c>
       <c r="L38" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044657</v>
       </c>
       <c r="M38" t="n">
         <v>103.4642265438473</v>
@@ -33909,25 +33909,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O38" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971764</v>
       </c>
       <c r="P38" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737666</v>
       </c>
       <c r="Q38" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134784</v>
       </c>
       <c r="R38" t="n">
         <v>37.01343159545223</v>
       </c>
       <c r="S38" t="n">
-        <v>13.4271557515988</v>
+        <v>13.42715575159879</v>
       </c>
       <c r="T38" t="n">
         <v>2.57936914109155</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809225</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,7 +33967,7 @@
         <v>0.3152676547891928</v>
       </c>
       <c r="H39" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885099</v>
       </c>
       <c r="I39" t="n">
         <v>10.85461004427703</v>
@@ -33976,22 +33976,22 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K39" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409522</v>
       </c>
       <c r="L39" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253943</v>
       </c>
       <c r="M39" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864764</v>
       </c>
       <c r="N39" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975588</v>
       </c>
       <c r="O39" t="n">
-        <v>75.01019504100589</v>
+        <v>75.01019504100587</v>
       </c>
       <c r="P39" t="n">
-        <v>60.20229453601701</v>
+        <v>60.202294536017</v>
       </c>
       <c r="Q39" t="n">
         <v>40.24363958326609</v>
@@ -34000,7 +34000,7 @@
         <v>19.57424965436761</v>
       </c>
       <c r="S39" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422064</v>
       </c>
       <c r="T39" t="n">
         <v>1.270749889259948</v>
@@ -34043,34 +34043,34 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483453</v>
       </c>
       <c r="H40" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644381</v>
       </c>
       <c r="I40" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177515</v>
       </c>
       <c r="J40" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525801</v>
       </c>
       <c r="K40" t="n">
         <v>30.70799443412594</v>
       </c>
       <c r="L40" t="n">
-        <v>39.29566048323129</v>
+        <v>39.29566048323128</v>
       </c>
       <c r="M40" t="n">
-        <v>41.43176432141109</v>
+        <v>41.43176432141108</v>
       </c>
       <c r="N40" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039455</v>
       </c>
       <c r="O40" t="n">
-        <v>37.35899041172069</v>
+        <v>37.35899041172068</v>
       </c>
       <c r="P40" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225441</v>
       </c>
       <c r="Q40" t="n">
         <v>22.13234246735009</v>
@@ -34079,7 +34079,7 @@
         <v>11.88433024031196</v>
       </c>
       <c r="S40" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118889</v>
       </c>
       <c r="T40" t="n">
         <v>1.129323738970203</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35023,16 +35023,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>43.28534947792188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35257,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N9" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K12" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>300.7391464461244</v>
@@ -35500,16 +35500,16 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N12" t="n">
-        <v>369.8184599192613</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P12" t="n">
-        <v>244.6906557616239</v>
+        <v>141.323749279139</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35728,16 +35728,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>300.7391464461244</v>
+        <v>116.0723750175073</v>
       </c>
       <c r="M15" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N15" t="n">
-        <v>153.8813432790641</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O15" t="n">
         <v>326.276269873291</v>
@@ -35746,7 +35746,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>29.03928828696145</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>300.7391464461244</v>
@@ -35974,16 +35974,16 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N18" t="n">
-        <v>14.50290175900931</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O18" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P18" t="n">
-        <v>244.6906557616239</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q18" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167966</v>
       </c>
       <c r="K20" t="n">
         <v>179.0082576726432</v>
@@ -36132,7 +36132,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N20" t="n">
-        <v>313.0722467132387</v>
+        <v>313.0722467132386</v>
       </c>
       <c r="O20" t="n">
         <v>249.9811662707763</v>
@@ -36141,7 +36141,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680303</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>300.7391464461244</v>
+        <v>226.4115282506012</v>
       </c>
       <c r="M21" t="n">
         <v>403.4526632366292</v>
@@ -36217,7 +36217,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P21" t="n">
-        <v>170.3630375661004</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36281,16 +36281,16 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243084</v>
       </c>
       <c r="L22" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354741</v>
       </c>
       <c r="M22" t="n">
-        <v>81.01564128325168</v>
+        <v>81.01564128325167</v>
       </c>
       <c r="N22" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962314</v>
       </c>
       <c r="O22" t="n">
         <v>61.94411832576036</v>
@@ -36442,13 +36442,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>300.7391464461244</v>
+        <v>226.4115282506012</v>
       </c>
       <c r="M24" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N24" t="n">
-        <v>331.413953801379</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O24" t="n">
         <v>326.276269873291</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167966</v>
       </c>
       <c r="K26" t="n">
         <v>179.0082576726432</v>
@@ -36606,7 +36606,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N26" t="n">
-        <v>313.0722467132387</v>
+        <v>313.0722467132386</v>
       </c>
       <c r="O26" t="n">
         <v>249.9811662707763</v>
@@ -36615,7 +36615,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q26" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680303</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36685,16 +36685,16 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N27" t="n">
-        <v>405.7415719969023</v>
+        <v>331.413953801379</v>
       </c>
       <c r="O27" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P27" t="n">
-        <v>30.98459604604517</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,16 +36755,16 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243084</v>
       </c>
       <c r="L28" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354741</v>
       </c>
       <c r="M28" t="n">
-        <v>81.01564128325168</v>
+        <v>81.01564128325167</v>
       </c>
       <c r="N28" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962314</v>
       </c>
       <c r="O28" t="n">
         <v>61.94411832576036</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167966</v>
       </c>
       <c r="K29" t="n">
         <v>179.0082576726432</v>
@@ -36843,7 +36843,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N29" t="n">
-        <v>313.0722467132387</v>
+        <v>313.0722467132386</v>
       </c>
       <c r="O29" t="n">
         <v>249.9811662707763</v>
@@ -36852,7 +36852,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q29" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680303</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>60.02388433300675</v>
+        <v>170.3630375661006</v>
       </c>
       <c r="L30" t="n">
         <v>300.7391464461244</v>
@@ -36931,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,16 +36992,16 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243084</v>
       </c>
       <c r="L31" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354741</v>
       </c>
       <c r="M31" t="n">
-        <v>81.01564128325168</v>
+        <v>81.01564128325167</v>
       </c>
       <c r="N31" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962314</v>
       </c>
       <c r="O31" t="n">
         <v>61.94411832576036</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167966</v>
       </c>
       <c r="K32" t="n">
         <v>179.0082576726432</v>
@@ -37080,7 +37080,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N32" t="n">
-        <v>313.0722467132387</v>
+        <v>313.0722467132386</v>
       </c>
       <c r="O32" t="n">
         <v>249.9811662707763</v>
@@ -37089,7 +37089,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q32" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680303</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>300.7391464461244</v>
+        <v>226.4115282506012</v>
       </c>
       <c r="M33" t="n">
         <v>403.4526632366292</v>
@@ -37165,7 +37165,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P33" t="n">
-        <v>170.3630375661004</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37229,16 +37229,16 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243084</v>
       </c>
       <c r="L34" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354741</v>
       </c>
       <c r="M34" t="n">
-        <v>81.01564128325168</v>
+        <v>81.01564128325167</v>
       </c>
       <c r="N34" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962314</v>
       </c>
       <c r="O34" t="n">
         <v>61.94411832576036</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167966</v>
       </c>
       <c r="K35" t="n">
         <v>179.0082576726432</v>
@@ -37317,7 +37317,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N35" t="n">
-        <v>313.0722467132387</v>
+        <v>313.0722467132386</v>
       </c>
       <c r="O35" t="n">
         <v>249.9811662707763</v>
@@ -37326,7 +37326,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q35" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680303</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>29.03928828696146</v>
+        <v>29.03928828696145</v>
       </c>
       <c r="K36" t="n">
         <v>177.5326105223148</v>
@@ -37393,10 +37393,10 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M36" t="n">
-        <v>403.4526632366292</v>
+        <v>12.21399299873585</v>
       </c>
       <c r="N36" t="n">
-        <v>14.50290175900885</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O36" t="n">
         <v>326.276269873291</v>
@@ -37466,16 +37466,16 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243084</v>
       </c>
       <c r="L37" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354741</v>
       </c>
       <c r="M37" t="n">
-        <v>81.01564128325168</v>
+        <v>81.01564128325167</v>
       </c>
       <c r="N37" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962314</v>
       </c>
       <c r="O37" t="n">
         <v>61.94411832576036</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167966</v>
       </c>
       <c r="K38" t="n">
         <v>179.0082576726432</v>
@@ -37554,7 +37554,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N38" t="n">
-        <v>313.0722467132387</v>
+        <v>313.0722467132386</v>
       </c>
       <c r="O38" t="n">
         <v>249.9811662707763</v>
@@ -37563,7 +37563,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q38" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680303</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37624,10 +37624,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M39" t="n">
         <v>403.4526632366292</v>
@@ -37636,13 +37636,13 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O39" t="n">
-        <v>264.8160343684835</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P39" t="n">
-        <v>244.6906557616239</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,16 +37703,16 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243084</v>
       </c>
       <c r="L40" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354741</v>
       </c>
       <c r="M40" t="n">
-        <v>81.01564128325168</v>
+        <v>81.01564128325167</v>
       </c>
       <c r="N40" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962314</v>
       </c>
       <c r="O40" t="n">
         <v>61.94411832576036</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K42" t="n">
         <v>177.5326105223148</v>
@@ -37867,13 +37867,13 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M42" t="n">
-        <v>41.25328128569732</v>
+        <v>338.4902628720268</v>
       </c>
       <c r="N42" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="O42" t="n">
-        <v>326.276269873291</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>244.6906557616239</v>
@@ -38034,10 +38034,10 @@
         <v>249.9811662707763</v>
       </c>
       <c r="P44" t="n">
-        <v>175.2982096635898</v>
+        <v>175.2982096635897</v>
       </c>
       <c r="Q44" t="n">
-        <v>53.63987744680312</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L45" t="n">
         <v>300.7391464461244</v>
@@ -38107,13 +38107,13 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N45" t="n">
-        <v>405.7415719969023</v>
+        <v>124.8420549921026</v>
       </c>
       <c r="O45" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P45" t="n">
-        <v>170.3630375661004</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
